--- a/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7435608488141547</v>
+        <v>0.7435608488141571</v>
       </c>
       <c r="D2">
-        <v>0.7550644838592465</v>
+        <v>0.7550644838592491</v>
       </c>
       <c r="E2">
-        <v>0.7831200204778126</v>
+        <v>0.7831200204778149</v>
       </c>
       <c r="F2">
-        <v>0.7317856945853063</v>
+        <v>0.7317856945853088</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.005310653941792</v>
+        <v>1.005310653941791</v>
       </c>
       <c r="J2">
-        <v>0.7775109019811414</v>
+        <v>0.7775109019811436</v>
       </c>
       <c r="K2">
-        <v>0.7714640873569775</v>
+        <v>0.77146408735698</v>
       </c>
       <c r="L2">
-        <v>0.7987406263368336</v>
+        <v>0.7987406263368355</v>
       </c>
       <c r="M2">
-        <v>0.7488946121810566</v>
+        <v>0.7488946121810592</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8226574071501239</v>
+        <v>0.8226574071501265</v>
       </c>
       <c r="D3">
-        <v>0.8320039444913024</v>
+        <v>0.8320039444913052</v>
       </c>
       <c r="E3">
-        <v>0.8507861066850484</v>
+        <v>0.8507861066850511</v>
       </c>
       <c r="F3">
-        <v>0.8156829330305398</v>
+        <v>0.8156829330305428</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.018218775395193</v>
+        <v>1.018218775395194</v>
       </c>
       <c r="J3">
-        <v>0.8495097618540742</v>
+        <v>0.8495097618540769</v>
       </c>
       <c r="K3">
-        <v>0.8453586485484874</v>
+        <v>0.8453586485484903</v>
       </c>
       <c r="L3">
-        <v>0.8637665788082073</v>
+        <v>0.8637665788082098</v>
       </c>
       <c r="M3">
-        <v>0.8293814117006149</v>
+        <v>0.8293814117006179</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8547658496662165</v>
+        <v>0.8547658496662203</v>
       </c>
       <c r="D4">
-        <v>0.8633201259863916</v>
+        <v>0.8633201259863953</v>
       </c>
       <c r="E4">
-        <v>0.8784019730826212</v>
+        <v>0.8784019730826242</v>
       </c>
       <c r="F4">
-        <v>0.849694192939233</v>
+        <v>0.8496941929392369</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023584369023834</v>
+        <v>1.023584369023835</v>
       </c>
       <c r="J4">
-        <v>0.8787882336903157</v>
+        <v>0.8787882336903192</v>
       </c>
       <c r="K4">
-        <v>0.8754059091594895</v>
+        <v>0.875405909159493</v>
       </c>
       <c r="L4">
-        <v>0.8902293572539647</v>
+        <v>0.8902293572539678</v>
       </c>
       <c r="M4">
-        <v>0.8620236984171756</v>
+        <v>0.8620236984171795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.866372843732596</v>
+        <v>0.8663728437325957</v>
       </c>
       <c r="D5">
-        <v>0.8746504378874319</v>
+        <v>0.8746504378874314</v>
       </c>
       <c r="E5">
-        <v>0.8884013703169897</v>
+        <v>0.8884013703169896</v>
       </c>
       <c r="F5">
-        <v>0.8619882385815862</v>
+        <v>0.8619882385815857</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.025531342710871</v>
       </c>
       <c r="J5">
-        <v>0.8893737600852732</v>
+        <v>0.8893737600852729</v>
       </c>
       <c r="K5">
-        <v>0.8862705385343338</v>
+        <v>0.8862705385343332</v>
       </c>
       <c r="L5">
-        <v>0.8997991047718699</v>
+        <v>0.8997991047718698</v>
       </c>
       <c r="M5">
-        <v>0.8738212065968551</v>
+        <v>0.8738212065968546</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8682376737725205</v>
+        <v>0.868237673772523</v>
       </c>
       <c r="D6">
-        <v>0.8764712617385596</v>
+        <v>0.8764712617385619</v>
       </c>
       <c r="E6">
-        <v>0.8900086567202526</v>
+        <v>0.890008656720255</v>
       </c>
       <c r="F6">
-        <v>0.8639635127173203</v>
+        <v>0.863963512717323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025844287565448</v>
+        <v>1.025844287565449</v>
       </c>
       <c r="J6">
-        <v>0.8910744444014637</v>
+        <v>0.8910744444014661</v>
       </c>
       <c r="K6">
-        <v>0.8880161493035952</v>
+        <v>0.8880161493035975</v>
       </c>
       <c r="L6">
-        <v>0.9013366942003761</v>
+        <v>0.9013366942003783</v>
       </c>
       <c r="M6">
-        <v>0.8757165517331131</v>
+        <v>0.8757165517331157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8549270353967576</v>
+        <v>0.8549270353967615</v>
       </c>
       <c r="D7">
-        <v>0.863477435925207</v>
+        <v>0.8634774359252114</v>
       </c>
       <c r="E7">
-        <v>0.8785407783151932</v>
+        <v>0.8785407783151965</v>
       </c>
       <c r="F7">
-        <v>0.84986491748089</v>
+        <v>0.8498649174808941</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023611391453129</v>
+        <v>1.02361139145313</v>
       </c>
       <c r="J7">
-        <v>0.8789352343453248</v>
+        <v>0.8789352343453286</v>
       </c>
       <c r="K7">
-        <v>0.8755567800579823</v>
+        <v>0.8755567800579865</v>
       </c>
       <c r="L7">
-        <v>0.8903622442147022</v>
+        <v>0.8903622442147057</v>
       </c>
       <c r="M7">
-        <v>0.8621875372778099</v>
+        <v>0.8621875372778139</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D8">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E8">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F8">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J8">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K8">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L8">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M8">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D9">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E9">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F9">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J9">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K9">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L9">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M9">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D10">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E10">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F10">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J10">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K10">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L10">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M10">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D11">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E11">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F11">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J11">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K11">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L11">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M11">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D12">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E12">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F12">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J12">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K12">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L12">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M12">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D13">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E13">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F13">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J13">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K13">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L13">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M13">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D14">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E14">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F14">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J14">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K14">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L14">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M14">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D15">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E15">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F15">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J15">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K15">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L15">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M15">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D16">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E16">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F16">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J16">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K16">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L16">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M16">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D17">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E17">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F17">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J17">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K17">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L17">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M17">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D18">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E18">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F18">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J18">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K18">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L18">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M18">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D19">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E19">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F19">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J19">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K19">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L19">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M19">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D20">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E20">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F20">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J20">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K20">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L20">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M20">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D21">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E21">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F21">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J21">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K21">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L21">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M21">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D22">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E22">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F22">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J22">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K22">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L22">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M22">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D23">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E23">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F23">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J23">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K23">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L23">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M23">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D24">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E24">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F24">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J24">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K24">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L24">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M24">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7779842616478521</v>
+        <v>0.7779842616478445</v>
       </c>
       <c r="D25">
-        <v>0.7885087282936113</v>
+        <v>0.7885087282936042</v>
       </c>
       <c r="E25">
-        <v>0.8124959312336819</v>
+        <v>0.8124959312336754</v>
       </c>
       <c r="F25">
-        <v>0.768329804009836</v>
+        <v>0.768329804009828</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010856432636245</v>
+        <v>1.010856432636244</v>
       </c>
       <c r="J25">
-        <v>0.808812444254934</v>
+        <v>0.808812444254927</v>
       </c>
       <c r="K25">
-        <v>0.8035933603586614</v>
+        <v>0.8035933603586541</v>
       </c>
       <c r="L25">
-        <v>0.8270008451351657</v>
+        <v>0.8270008451351593</v>
       </c>
       <c r="M25">
-        <v>0.7839403076116658</v>
+        <v>0.783940307611658</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7435608488141571</v>
+        <v>0.7435608488141547</v>
       </c>
       <c r="D2">
-        <v>0.7550644838592491</v>
+        <v>0.7550644838592465</v>
       </c>
       <c r="E2">
-        <v>0.7831200204778149</v>
+        <v>0.7831200204778126</v>
       </c>
       <c r="F2">
-        <v>0.7317856945853088</v>
+        <v>0.7317856945853063</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.005310653941791</v>
+        <v>1.005310653941792</v>
       </c>
       <c r="J2">
-        <v>0.7775109019811436</v>
+        <v>0.7775109019811414</v>
       </c>
       <c r="K2">
-        <v>0.77146408735698</v>
+        <v>0.7714640873569775</v>
       </c>
       <c r="L2">
-        <v>0.7987406263368355</v>
+        <v>0.7987406263368336</v>
       </c>
       <c r="M2">
-        <v>0.7488946121810592</v>
+        <v>0.7488946121810566</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8226574071501265</v>
+        <v>0.8226574071501239</v>
       </c>
       <c r="D3">
-        <v>0.8320039444913052</v>
+        <v>0.8320039444913024</v>
       </c>
       <c r="E3">
-        <v>0.8507861066850511</v>
+        <v>0.8507861066850484</v>
       </c>
       <c r="F3">
-        <v>0.8156829330305428</v>
+        <v>0.8156829330305398</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.018218775395194</v>
+        <v>1.018218775395193</v>
       </c>
       <c r="J3">
-        <v>0.8495097618540769</v>
+        <v>0.8495097618540742</v>
       </c>
       <c r="K3">
-        <v>0.8453586485484903</v>
+        <v>0.8453586485484874</v>
       </c>
       <c r="L3">
-        <v>0.8637665788082098</v>
+        <v>0.8637665788082073</v>
       </c>
       <c r="M3">
-        <v>0.8293814117006179</v>
+        <v>0.8293814117006149</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8547658496662203</v>
+        <v>0.8547658496662165</v>
       </c>
       <c r="D4">
-        <v>0.8633201259863953</v>
+        <v>0.8633201259863916</v>
       </c>
       <c r="E4">
-        <v>0.8784019730826242</v>
+        <v>0.8784019730826212</v>
       </c>
       <c r="F4">
-        <v>0.8496941929392369</v>
+        <v>0.849694192939233</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023584369023835</v>
+        <v>1.023584369023834</v>
       </c>
       <c r="J4">
-        <v>0.8787882336903192</v>
+        <v>0.8787882336903157</v>
       </c>
       <c r="K4">
-        <v>0.875405909159493</v>
+        <v>0.8754059091594895</v>
       </c>
       <c r="L4">
-        <v>0.8902293572539678</v>
+        <v>0.8902293572539647</v>
       </c>
       <c r="M4">
-        <v>0.8620236984171795</v>
+        <v>0.8620236984171756</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8663728437325957</v>
+        <v>0.866372843732596</v>
       </c>
       <c r="D5">
-        <v>0.8746504378874314</v>
+        <v>0.8746504378874319</v>
       </c>
       <c r="E5">
-        <v>0.8884013703169896</v>
+        <v>0.8884013703169897</v>
       </c>
       <c r="F5">
-        <v>0.8619882385815857</v>
+        <v>0.8619882385815862</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.025531342710871</v>
       </c>
       <c r="J5">
-        <v>0.8893737600852729</v>
+        <v>0.8893737600852732</v>
       </c>
       <c r="K5">
-        <v>0.8862705385343332</v>
+        <v>0.8862705385343338</v>
       </c>
       <c r="L5">
-        <v>0.8997991047718698</v>
+        <v>0.8997991047718699</v>
       </c>
       <c r="M5">
-        <v>0.8738212065968546</v>
+        <v>0.8738212065968551</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.868237673772523</v>
+        <v>0.8682376737725205</v>
       </c>
       <c r="D6">
-        <v>0.8764712617385619</v>
+        <v>0.8764712617385596</v>
       </c>
       <c r="E6">
-        <v>0.890008656720255</v>
+        <v>0.8900086567202526</v>
       </c>
       <c r="F6">
-        <v>0.863963512717323</v>
+        <v>0.8639635127173203</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025844287565449</v>
+        <v>1.025844287565448</v>
       </c>
       <c r="J6">
-        <v>0.8910744444014661</v>
+        <v>0.8910744444014637</v>
       </c>
       <c r="K6">
-        <v>0.8880161493035975</v>
+        <v>0.8880161493035952</v>
       </c>
       <c r="L6">
-        <v>0.9013366942003783</v>
+        <v>0.9013366942003761</v>
       </c>
       <c r="M6">
-        <v>0.8757165517331157</v>
+        <v>0.8757165517331131</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8549270353967615</v>
+        <v>0.8549270353967576</v>
       </c>
       <c r="D7">
-        <v>0.8634774359252114</v>
+        <v>0.863477435925207</v>
       </c>
       <c r="E7">
-        <v>0.8785407783151965</v>
+        <v>0.8785407783151932</v>
       </c>
       <c r="F7">
-        <v>0.8498649174808941</v>
+        <v>0.84986491748089</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02361139145313</v>
+        <v>1.023611391453129</v>
       </c>
       <c r="J7">
-        <v>0.8789352343453286</v>
+        <v>0.8789352343453248</v>
       </c>
       <c r="K7">
-        <v>0.8755567800579865</v>
+        <v>0.8755567800579823</v>
       </c>
       <c r="L7">
-        <v>0.8903622442147057</v>
+        <v>0.8903622442147022</v>
       </c>
       <c r="M7">
-        <v>0.8621875372778139</v>
+        <v>0.8621875372778099</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D8">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E8">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F8">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J8">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K8">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L8">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M8">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D9">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E9">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F9">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J9">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K9">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L9">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M9">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D10">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E10">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F10">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J10">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K10">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L10">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M10">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D11">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E11">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F11">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J11">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K11">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L11">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M11">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D12">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E12">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F12">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J12">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K12">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L12">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M12">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D13">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E13">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F13">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J13">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K13">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L13">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M13">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D14">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E14">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F14">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J14">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K14">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L14">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M14">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D15">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E15">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F15">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J15">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K15">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L15">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M15">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D16">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E16">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F16">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J16">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K16">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L16">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M16">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D17">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E17">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F17">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J17">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K17">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L17">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M17">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D18">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E18">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F18">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J18">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K18">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L18">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M18">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D19">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E19">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F19">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J19">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K19">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L19">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M19">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D20">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E20">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F20">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J20">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K20">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L20">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M20">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D21">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E21">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F21">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J21">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K21">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L21">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M21">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D22">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E22">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F22">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J22">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K22">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L22">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M22">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D23">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E23">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F23">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J23">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K23">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L23">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M23">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D24">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E24">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F24">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J24">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K24">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L24">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M24">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7779842616478445</v>
+        <v>0.7779842616478521</v>
       </c>
       <c r="D25">
-        <v>0.7885087282936042</v>
+        <v>0.7885087282936113</v>
       </c>
       <c r="E25">
-        <v>0.8124959312336754</v>
+        <v>0.8124959312336819</v>
       </c>
       <c r="F25">
-        <v>0.768329804009828</v>
+        <v>0.768329804009836</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010856432636244</v>
+        <v>1.010856432636245</v>
       </c>
       <c r="J25">
-        <v>0.808812444254927</v>
+        <v>0.808812444254934</v>
       </c>
       <c r="K25">
-        <v>0.8035933603586541</v>
+        <v>0.8035933603586614</v>
       </c>
       <c r="L25">
-        <v>0.8270008451351593</v>
+        <v>0.8270008451351657</v>
       </c>
       <c r="M25">
-        <v>0.783940307611658</v>
+        <v>0.7839403076116658</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7435608488141547</v>
+        <v>0.7555973401297075</v>
       </c>
       <c r="D2">
-        <v>0.7550644838592465</v>
+        <v>0.7668405397014018</v>
       </c>
       <c r="E2">
-        <v>0.7831200204778126</v>
+        <v>0.7933779189439339</v>
       </c>
       <c r="F2">
-        <v>0.7317856945853063</v>
+        <v>0.7444134619886162</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.005310653941792</v>
+        <v>1.007097777776498</v>
       </c>
       <c r="J2">
-        <v>0.7775109019811414</v>
+        <v>0.7887255822793993</v>
       </c>
       <c r="K2">
-        <v>0.7714640873569775</v>
+        <v>0.7829036860655882</v>
       </c>
       <c r="L2">
-        <v>0.7987406263368336</v>
+        <v>0.8087322717859323</v>
       </c>
       <c r="M2">
-        <v>0.7488946121810566</v>
+        <v>0.7611300233331845</v>
+      </c>
+      <c r="N2">
+        <v>0.7898456630743249</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8226574071501239</v>
+        <v>0.8299992181287722</v>
       </c>
       <c r="D3">
-        <v>0.8320039444913024</v>
+        <v>0.8392533819614506</v>
       </c>
       <c r="E3">
-        <v>0.8507861066850484</v>
+        <v>0.8570906637813984</v>
       </c>
       <c r="F3">
-        <v>0.8156829330305398</v>
+        <v>0.823288574863097</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.018218775395193</v>
+        <v>1.019298273826978</v>
       </c>
       <c r="J3">
-        <v>0.8495097618540742</v>
+        <v>0.8565101234898825</v>
       </c>
       <c r="K3">
-        <v>0.8453586485484874</v>
+        <v>0.8524610302504657</v>
       </c>
       <c r="L3">
-        <v>0.8637665788082073</v>
+        <v>0.86995032528397</v>
       </c>
       <c r="M3">
-        <v>0.8293814117006149</v>
+        <v>0.8368246091798854</v>
+      </c>
+      <c r="N3">
+        <v>0.8577264661083224</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8547658496662165</v>
+        <v>0.8613410605184562</v>
       </c>
       <c r="D4">
-        <v>0.8633201259863916</v>
+        <v>0.8698318527675006</v>
       </c>
       <c r="E4">
-        <v>0.8784019730826212</v>
+        <v>0.8840610155982246</v>
       </c>
       <c r="F4">
-        <v>0.849694192939233</v>
+        <v>0.8564780905442035</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023584369023834</v>
+        <v>1.024546003761413</v>
       </c>
       <c r="J4">
-        <v>0.8787882336903157</v>
+        <v>0.8851065589612895</v>
       </c>
       <c r="K4">
-        <v>0.8754059091594895</v>
+        <v>0.8818046488207166</v>
       </c>
       <c r="L4">
-        <v>0.8902293572539647</v>
+        <v>0.895794369389706</v>
       </c>
       <c r="M4">
-        <v>0.8620236984171756</v>
+        <v>0.8686849959573862</v>
+      </c>
+      <c r="N4">
+        <v>0.8863635117981559</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.866372843732596</v>
+        <v>0.8727373221782587</v>
       </c>
       <c r="D5">
-        <v>0.8746504378874319</v>
+        <v>0.8809596090407548</v>
       </c>
       <c r="E5">
-        <v>0.8884013703169897</v>
+        <v>0.8938830535056446</v>
       </c>
       <c r="F5">
-        <v>0.8619882385815862</v>
+        <v>0.8685458800627919</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025531342710871</v>
+        <v>1.026460298679058</v>
       </c>
       <c r="J5">
-        <v>0.8893737600852732</v>
+        <v>0.8955055663740418</v>
       </c>
       <c r="K5">
-        <v>0.8862705385343338</v>
+        <v>0.8924765775852755</v>
       </c>
       <c r="L5">
-        <v>0.8997991047718699</v>
+        <v>0.9051945823638602</v>
       </c>
       <c r="M5">
-        <v>0.8738212065968551</v>
+        <v>0.8802676069098037</v>
+      </c>
+      <c r="N5">
+        <v>0.8967772869942168</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8682376737725205</v>
+        <v>0.8745708649424463</v>
       </c>
       <c r="D6">
-        <v>0.8764712617385596</v>
+        <v>0.8827503720480834</v>
       </c>
       <c r="E6">
-        <v>0.8900086567202526</v>
+        <v>0.8954640135545936</v>
       </c>
       <c r="F6">
-        <v>0.8639635127173203</v>
+        <v>0.8704875414511845</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025844287565448</v>
+        <v>1.026768378949411</v>
       </c>
       <c r="J6">
-        <v>0.8910744444014637</v>
+        <v>0.897178609264258</v>
       </c>
       <c r="K6">
-        <v>0.8880161493035952</v>
+        <v>0.8941936163999428</v>
       </c>
       <c r="L6">
-        <v>0.9013366942003761</v>
+        <v>0.9067070313334235</v>
       </c>
       <c r="M6">
-        <v>0.8757165517331131</v>
+        <v>0.88213104775453</v>
+      </c>
+      <c r="N6">
+        <v>0.898452705797238</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8549270353967576</v>
+        <v>0.8614991182768068</v>
       </c>
       <c r="D7">
-        <v>0.863477435925207</v>
+        <v>0.8699861551402182</v>
       </c>
       <c r="E7">
-        <v>0.8785407783151932</v>
+        <v>0.8841971877892786</v>
       </c>
       <c r="F7">
-        <v>0.84986491748089</v>
+        <v>0.856645458263711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023611391453129</v>
+        <v>1.024572542166975</v>
       </c>
       <c r="J7">
-        <v>0.8789352343453248</v>
+        <v>0.8852507870994677</v>
       </c>
       <c r="K7">
-        <v>0.8755567800579823</v>
+        <v>0.8819526564363418</v>
       </c>
       <c r="L7">
-        <v>0.8903622442147022</v>
+        <v>0.8959247375747157</v>
       </c>
       <c r="M7">
-        <v>0.8621875372778099</v>
+        <v>0.8688456449049055</v>
+      </c>
+      <c r="N7">
+        <v>0.8865079447568335</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D8">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E8">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F8">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J8">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K8">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L8">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M8">
-        <v>0.7839403076116658</v>
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N8">
+        <v>0.8186298292032637</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D9">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E9">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F9">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J9">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K9">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L9">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M9">
-        <v>0.7839403076116658</v>
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N9">
+        <v>0.8186298292032637</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D10">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E10">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F10">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J10">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K10">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L10">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M10">
-        <v>0.7839403076116658</v>
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N10">
+        <v>0.8186298292032637</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D11">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E11">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F11">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J11">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K11">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L11">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M11">
-        <v>0.7839403076116658</v>
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N11">
+        <v>0.8186298292032637</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D12">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E12">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F12">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J12">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K12">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L12">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M12">
-        <v>0.7839403076116658</v>
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N12">
+        <v>0.8186298292032637</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D13">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E13">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F13">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J13">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K13">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L13">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M13">
-        <v>0.7839403076116658</v>
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N13">
+        <v>0.8186298292032637</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D14">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E14">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F14">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J14">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K14">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L14">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M14">
-        <v>0.7839403076116658</v>
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N14">
+        <v>0.8186298292032637</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D15">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E15">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F15">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J15">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K15">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L15">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M15">
-        <v>0.7839403076116658</v>
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N15">
+        <v>0.8186298292032637</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D16">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E16">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F16">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J16">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K16">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L16">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M16">
-        <v>0.7839403076116658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N16">
+        <v>0.8186298292032637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D17">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E17">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F17">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J17">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K17">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L17">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M17">
-        <v>0.7839403076116658</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N17">
+        <v>0.8186298292032637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D18">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E18">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F18">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J18">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K18">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L18">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M18">
-        <v>0.7839403076116658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N18">
+        <v>0.8186298292032637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D19">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E19">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F19">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J19">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K19">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L19">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M19">
-        <v>0.7839403076116658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N19">
+        <v>0.8186298292032637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D20">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E20">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F20">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J20">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K20">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L20">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M20">
-        <v>0.7839403076116658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N20">
+        <v>0.8186298292032637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D21">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E21">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F21">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J21">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K21">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L21">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M21">
-        <v>0.7839403076116658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N21">
+        <v>0.8186298292032637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D22">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E22">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F22">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J22">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K22">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L22">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M22">
-        <v>0.7839403076116658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N22">
+        <v>0.8186298292032637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D23">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E23">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F23">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J23">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K23">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L23">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M23">
-        <v>0.7839403076116658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N23">
+        <v>0.8186298292032637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D24">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E24">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F24">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J24">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K24">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L24">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M24">
-        <v>0.7839403076116658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N24">
+        <v>0.8186298292032637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7779842616478521</v>
+        <v>0.7871754989358755</v>
       </c>
       <c r="D25">
-        <v>0.7885087282936113</v>
+        <v>0.797540454816843</v>
       </c>
       <c r="E25">
-        <v>0.8124959312336819</v>
+        <v>0.8203581162493727</v>
       </c>
       <c r="F25">
-        <v>0.768329804009836</v>
+        <v>0.7779146146172574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.010856432636245</v>
+        <v>1.012216468175462</v>
       </c>
       <c r="J25">
-        <v>0.808812444254934</v>
+        <v>0.8174689295582941</v>
       </c>
       <c r="K25">
-        <v>0.8035933603586614</v>
+        <v>0.8124013032264745</v>
       </c>
       <c r="L25">
-        <v>0.8270008451351657</v>
+        <v>0.8346828521412747</v>
       </c>
       <c r="M25">
-        <v>0.7839403076116658</v>
+        <v>0.7932707236672956</v>
+      </c>
+      <c r="N25">
+        <v>0.8186298292032637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9780439437921874</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9906288811199577</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9914263744263129</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9879806314271404</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.035962301739697</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.000901792791289</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.002220333037283</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.003006460025858</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9996099943672309</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.004415975724915</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9851479628837193</v>
+      </c>
+      <c r="D3">
+        <v>0.9973898516561416</v>
+      </c>
+      <c r="E3">
+        <v>0.9981645884178605</v>
+      </c>
+      <c r="F3">
+        <v>0.9968973443192937</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.039215529366234</v>
+      </c>
+      <c r="J3">
+        <v>1.00605186412049</v>
+      </c>
+      <c r="K3">
+        <v>1.008056239120714</v>
+      </c>
+      <c r="L3">
+        <v>1.008821007671517</v>
+      </c>
+      <c r="M3">
+        <v>1.007570078743817</v>
+      </c>
+      <c r="N3">
+        <v>1.006112935229589</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9895237528204766</v>
+      </c>
+      <c r="D4">
+        <v>1.001536040172114</v>
+      </c>
+      <c r="E4">
+        <v>1.002296035421118</v>
+      </c>
+      <c r="F4">
+        <v>1.002316986336653</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.041122171435457</v>
+      </c>
+      <c r="J4">
+        <v>1.009199292277367</v>
+      </c>
+      <c r="K4">
+        <v>1.011615961827733</v>
+      </c>
+      <c r="L4">
+        <v>1.012366828083233</v>
+      </c>
+      <c r="M4">
+        <v>1.012387527581562</v>
+      </c>
+      <c r="N4">
+        <v>1.007150124486723</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9913154430610748</v>
+      </c>
+      <c r="D5">
+        <v>1.003229694835682</v>
+      </c>
+      <c r="E5">
+        <v>1.003983495542418</v>
+      </c>
+      <c r="F5">
+        <v>1.004519910557789</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.041880513652485</v>
+      </c>
+      <c r="J5">
+        <v>1.010482451250091</v>
+      </c>
+      <c r="K5">
+        <v>1.013065669989144</v>
+      </c>
+      <c r="L5">
+        <v>1.013810680046785</v>
+      </c>
+      <c r="M5">
+        <v>1.01434084944885</v>
+      </c>
+      <c r="N5">
+        <v>1.007572990363262</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9916135962304558</v>
+      </c>
+      <c r="D6">
+        <v>1.003511306333708</v>
+      </c>
+      <c r="E6">
+        <v>1.004264067264997</v>
+      </c>
+      <c r="F6">
+        <v>1.004885576564362</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.042005417638203</v>
+      </c>
+      <c r="J6">
+        <v>1.010695661877897</v>
+      </c>
+      <c r="K6">
+        <v>1.013306466703616</v>
+      </c>
+      <c r="L6">
+        <v>1.014050492980184</v>
+      </c>
+      <c r="M6">
+        <v>1.014664802789146</v>
+      </c>
+      <c r="N6">
+        <v>1.007643255059969</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.989547875706693</v>
+      </c>
+      <c r="D7">
+        <v>1.001558858688425</v>
+      </c>
+      <c r="E7">
+        <v>1.002318771147559</v>
+      </c>
+      <c r="F7">
+        <v>1.002346708748628</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.041132469194058</v>
+      </c>
+      <c r="J7">
+        <v>1.009216590110326</v>
+      </c>
+      <c r="K7">
+        <v>1.011635510845983</v>
+      </c>
+      <c r="L7">
+        <v>1.012386298887907</v>
+      </c>
+      <c r="M7">
+        <v>1.012413901363868</v>
+      </c>
+      <c r="N7">
+        <v>1.007155824928391</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.980493871193871</v>
+      </c>
+      <c r="D8">
+        <v>0.9929646725739667</v>
+      </c>
+      <c r="E8">
+        <v>0.9937544835246852</v>
+      </c>
+      <c r="F8">
+        <v>0.9910721194674965</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.037105710926578</v>
+      </c>
+      <c r="J8">
+        <v>1.002683443368873</v>
+      </c>
+      <c r="K8">
+        <v>1.00424079278836</v>
+      </c>
+      <c r="L8">
+        <v>1.005019724234459</v>
+      </c>
+      <c r="M8">
+        <v>1.002374398243152</v>
+      </c>
+      <c r="N8">
+        <v>1.005003006946094</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9625543189709488</v>
+      </c>
+      <c r="D9">
+        <v>0.9757560611457572</v>
+      </c>
+      <c r="E9">
+        <v>0.9765979358560168</v>
+      </c>
+      <c r="F9">
+        <v>0.9680312812344953</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.028233121255607</v>
+      </c>
+      <c r="J9">
+        <v>0.9895023900400671</v>
+      </c>
+      <c r="K9">
+        <v>0.9892551202323069</v>
+      </c>
+      <c r="L9">
+        <v>0.9900824602864551</v>
+      </c>
+      <c r="M9">
+        <v>0.9816652361036272</v>
+      </c>
+      <c r="N9">
+        <v>1.000660815877197</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9486772249530112</v>
+      </c>
+      <c r="D10">
+        <v>0.9622651239756904</v>
+      </c>
+      <c r="E10">
+        <v>0.963140058658558</v>
+      </c>
+      <c r="F10">
+        <v>0.9495401435741354</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.02059532840433</v>
+      </c>
+      <c r="J10">
+        <v>0.9790862180822951</v>
+      </c>
+      <c r="K10">
+        <v>0.9773508391929406</v>
+      </c>
+      <c r="L10">
+        <v>0.9782083257692246</v>
+      </c>
+      <c r="M10">
+        <v>0.9648844224833275</v>
+      </c>
+      <c r="N10">
+        <v>0.9972310273087184</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9419934380015308</v>
+      </c>
+      <c r="D11">
+        <v>0.9557036868811922</v>
+      </c>
+      <c r="E11">
+        <v>0.9565919682703607</v>
+      </c>
+      <c r="F11">
+        <v>0.9404066536787686</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.016672878648356</v>
+      </c>
+      <c r="J11">
+        <v>0.9739956165013545</v>
+      </c>
+      <c r="K11">
+        <v>0.9715122751487477</v>
+      </c>
+      <c r="L11">
+        <v>0.9723817073370531</v>
+      </c>
+      <c r="M11">
+        <v>0.9565472802394097</v>
+      </c>
+      <c r="N11">
+        <v>0.9955554332416174</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9393778459010271</v>
+      </c>
+      <c r="D12">
+        <v>0.9531235045256461</v>
+      </c>
+      <c r="E12">
+        <v>0.9540165030174834</v>
+      </c>
+      <c r="F12">
+        <v>0.9367889357836652</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.015093092639793</v>
+      </c>
+      <c r="J12">
+        <v>0.9719894828643449</v>
+      </c>
+      <c r="K12">
+        <v>0.9692074768196853</v>
+      </c>
+      <c r="L12">
+        <v>0.9700810820982506</v>
+      </c>
+      <c r="M12">
+        <v>0.9532363564717791</v>
+      </c>
+      <c r="N12">
+        <v>0.9948952283306057</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.939945618658937</v>
+      </c>
+      <c r="D13">
+        <v>0.9536842130303941</v>
+      </c>
+      <c r="E13">
+        <v>0.9545762128280607</v>
+      </c>
+      <c r="F13">
+        <v>0.9375763920527803</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.01543820658879</v>
+      </c>
+      <c r="J13">
+        <v>0.9724256504905511</v>
+      </c>
+      <c r="K13">
+        <v>0.9697087710018671</v>
+      </c>
+      <c r="L13">
+        <v>0.9705814953908918</v>
+      </c>
+      <c r="M13">
+        <v>0.9539574493391696</v>
+      </c>
+      <c r="N13">
+        <v>0.9950387619945443</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9417801899883894</v>
+      </c>
+      <c r="D14">
+        <v>0.9554935974049912</v>
+      </c>
+      <c r="E14">
+        <v>0.9563822744013498</v>
+      </c>
+      <c r="F14">
+        <v>0.9401126429415279</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.016545038041194</v>
+      </c>
+      <c r="J14">
+        <v>0.9738323598550118</v>
+      </c>
+      <c r="K14">
+        <v>0.9713247973978242</v>
+      </c>
+      <c r="L14">
+        <v>0.9721945807222817</v>
+      </c>
+      <c r="M14">
+        <v>0.956278384802054</v>
+      </c>
+      <c r="N14">
+        <v>0.9955017039190186</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9428916778174967</v>
+      </c>
+      <c r="D15">
+        <v>0.9565881023832777</v>
+      </c>
+      <c r="E15">
+        <v>0.9574746963012218</v>
+      </c>
+      <c r="F15">
+        <v>0.9416432743707058</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.017209514953021</v>
+      </c>
+      <c r="J15">
+        <v>0.974682701800624</v>
+      </c>
+      <c r="K15">
+        <v>0.9723011364911837</v>
+      </c>
+      <c r="L15">
+        <v>0.9731690687297601</v>
+      </c>
+      <c r="M15">
+        <v>0.9576779115439731</v>
+      </c>
+      <c r="N15">
+        <v>0.9957815646940165</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.949104251121023</v>
+      </c>
+      <c r="D16">
+        <v>0.9626828469514509</v>
+      </c>
+      <c r="E16">
+        <v>0.9635568686610226</v>
+      </c>
+      <c r="F16">
+        <v>0.9501184449199762</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.020840451955538</v>
+      </c>
+      <c r="J16">
+        <v>0.979409764731232</v>
+      </c>
+      <c r="K16">
+        <v>0.9777214547160387</v>
+      </c>
+      <c r="L16">
+        <v>0.9785781181480195</v>
+      </c>
+      <c r="M16">
+        <v>0.9654112430959437</v>
+      </c>
+      <c r="N16">
+        <v>0.9973375386172104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9528028502049657</v>
+      </c>
+      <c r="D17">
+        <v>0.9662937504128031</v>
+      </c>
+      <c r="E17">
+        <v>0.9671595763267137</v>
+      </c>
+      <c r="F17">
+        <v>0.9551019098968316</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.02293647446583</v>
+      </c>
+      <c r="J17">
+        <v>0.9822038774257824</v>
+      </c>
+      <c r="K17">
+        <v>0.9809197613762077</v>
+      </c>
+      <c r="L17">
+        <v>0.9817690074855729</v>
+      </c>
+      <c r="M17">
+        <v>0.9699457892239227</v>
+      </c>
+      <c r="N17">
+        <v>0.9982574270668539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9548977628641391</v>
+      </c>
+      <c r="D18">
+        <v>0.9683334735518937</v>
+      </c>
+      <c r="E18">
+        <v>0.9691944339912282</v>
+      </c>
+      <c r="F18">
+        <v>0.957904775570509</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.024102309548608</v>
+      </c>
+      <c r="J18">
+        <v>0.9837800540916124</v>
+      </c>
+      <c r="K18">
+        <v>0.9827221561286906</v>
+      </c>
+      <c r="L18">
+        <v>0.983566977563846</v>
+      </c>
+      <c r="M18">
+        <v>0.9724919663757559</v>
+      </c>
+      <c r="N18">
+        <v>0.9987763947622348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9556022054533958</v>
+      </c>
+      <c r="D19">
+        <v>0.9690184842369293</v>
+      </c>
+      <c r="E19">
+        <v>0.9698777732653139</v>
+      </c>
+      <c r="F19">
+        <v>0.958844118675687</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.024490887590542</v>
+      </c>
+      <c r="J19">
+        <v>0.9843090372656049</v>
+      </c>
+      <c r="K19">
+        <v>0.983326774120043</v>
+      </c>
+      <c r="L19">
+        <v>0.9841700722695949</v>
+      </c>
+      <c r="M19">
+        <v>0.9733445996324319</v>
+      </c>
+      <c r="N19">
+        <v>0.9989505746188061</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9524126600273722</v>
+      </c>
+      <c r="D20">
+        <v>0.9659134046512675</v>
+      </c>
+      <c r="E20">
+        <v>0.9667801191931603</v>
+      </c>
+      <c r="F20">
+        <v>0.9545782923688007</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.022717629628166</v>
+      </c>
+      <c r="J20">
+        <v>0.9819097958145412</v>
+      </c>
+      <c r="K20">
+        <v>0.9805833300009287</v>
+      </c>
+      <c r="L20">
+        <v>0.9814333826060117</v>
+      </c>
+      <c r="M20">
+        <v>0.96946978788668</v>
+      </c>
+      <c r="N20">
+        <v>0.9981606026960739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.941243965944929</v>
+      </c>
+      <c r="D21">
+        <v>0.9549651046389366</v>
+      </c>
+      <c r="E21">
+        <v>0.9558547678466032</v>
+      </c>
+      <c r="F21">
+        <v>0.939372604564911</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.016222827269285</v>
+      </c>
+      <c r="J21">
+        <v>0.9734216062945638</v>
+      </c>
+      <c r="K21">
+        <v>0.9708530381628061</v>
+      </c>
+      <c r="L21">
+        <v>0.9717236959600221</v>
+      </c>
+      <c r="M21">
+        <v>0.9556014199796483</v>
+      </c>
+      <c r="N21">
+        <v>0.995366523074629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9334207851248256</v>
+      </c>
+      <c r="D22">
+        <v>0.9472187862136258</v>
+      </c>
+      <c r="E22">
+        <v>0.9481213786643358</v>
+      </c>
+      <c r="F22">
+        <v>0.928452396845348</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.011397245620584</v>
+      </c>
+      <c r="J22">
+        <v>0.9673892713483526</v>
+      </c>
+      <c r="K22">
+        <v>0.963913737964764</v>
+      </c>
+      <c r="L22">
+        <v>0.964795713666648</v>
+      </c>
+      <c r="M22">
+        <v>0.945588212279582</v>
+      </c>
+      <c r="N22">
+        <v>0.9933816096932455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.937659955737501</v>
+      </c>
+      <c r="D23">
+        <v>0.9514248391334205</v>
+      </c>
+      <c r="E23">
+        <v>0.9523207720712873</v>
+      </c>
+      <c r="F23">
+        <v>0.934398964710668</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.014041422671306</v>
+      </c>
+      <c r="J23">
+        <v>0.9706674098442061</v>
+      </c>
+      <c r="K23">
+        <v>0.9676873393334562</v>
+      </c>
+      <c r="L23">
+        <v>0.9685635237298041</v>
+      </c>
+      <c r="M23">
+        <v>0.9510463873151253</v>
+      </c>
+      <c r="N23">
+        <v>0.9944601828771487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9525891609280338</v>
+      </c>
+      <c r="D24">
+        <v>0.9660854695450043</v>
+      </c>
+      <c r="E24">
+        <v>0.9669517828106271</v>
+      </c>
+      <c r="F24">
+        <v>0.9548152099216127</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.022816689488259</v>
+      </c>
+      <c r="J24">
+        <v>0.9820428423253702</v>
+      </c>
+      <c r="K24">
+        <v>0.9807355416780196</v>
+      </c>
+      <c r="L24">
+        <v>0.9815852301596766</v>
+      </c>
+      <c r="M24">
+        <v>0.9696851739703233</v>
+      </c>
+      <c r="N24">
+        <v>0.9982044071916221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9674760463946995</v>
+      </c>
+      <c r="D25">
+        <v>0.9805019202547323</v>
+      </c>
+      <c r="E25">
+        <v>0.9813304999341365</v>
+      </c>
+      <c r="F25">
+        <v>0.9744464363317454</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.030780821781842</v>
+      </c>
+      <c r="J25">
+        <v>0.9931498331422257</v>
+      </c>
+      <c r="K25">
+        <v>0.9934106529063151</v>
+      </c>
+      <c r="L25">
+        <v>0.9942257188732025</v>
+      </c>
+      <c r="M25">
+        <v>0.9874548291071662</v>
+      </c>
+      <c r="N25">
+        <v>1.001862182194035</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9780439437921874</v>
+        <v>1.031884919460599</v>
       </c>
       <c r="D2">
-        <v>0.9906288811199577</v>
+        <v>1.039780398609737</v>
       </c>
       <c r="E2">
-        <v>0.9914263744263129</v>
+        <v>1.040345215763777</v>
       </c>
       <c r="F2">
-        <v>0.9879806314271404</v>
+        <v>1.048735872445487</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035962301739697</v>
+        <v>1.02592303400647</v>
       </c>
       <c r="J2">
-        <v>1.000901792791289</v>
+        <v>1.037018184258537</v>
       </c>
       <c r="K2">
-        <v>1.002220333037283</v>
+        <v>1.042564613932337</v>
       </c>
       <c r="L2">
-        <v>1.003006460025858</v>
+        <v>1.043127827785265</v>
       </c>
       <c r="M2">
-        <v>0.9996099943672309</v>
+        <v>1.051494887174389</v>
       </c>
       <c r="N2">
-        <v>1.004415975724915</v>
+        <v>1.016327136406408</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9851479628837193</v>
+        <v>1.033087756228901</v>
       </c>
       <c r="D3">
-        <v>0.9973898516561416</v>
+        <v>1.040904770533465</v>
       </c>
       <c r="E3">
-        <v>0.9981645884178605</v>
+        <v>1.041463438377412</v>
       </c>
       <c r="F3">
-        <v>0.9968973443192937</v>
+        <v>1.050068373434721</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039215529366234</v>
+        <v>1.026089590951505</v>
       </c>
       <c r="J3">
-        <v>1.00605186412049</v>
+        <v>1.037861795254908</v>
       </c>
       <c r="K3">
-        <v>1.008056239120714</v>
+        <v>1.043498447266986</v>
       </c>
       <c r="L3">
-        <v>1.008821007671517</v>
+        <v>1.044055644888622</v>
       </c>
       <c r="M3">
-        <v>1.007570078743817</v>
+        <v>1.052638148005665</v>
       </c>
       <c r="N3">
-        <v>1.006112935229589</v>
+        <v>1.016605090389138</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9895237528204766</v>
+        <v>1.033860997972303</v>
       </c>
       <c r="D4">
-        <v>1.001536040172114</v>
+        <v>1.041626102621187</v>
       </c>
       <c r="E4">
-        <v>1.002296035421118</v>
+        <v>1.042180757432614</v>
       </c>
       <c r="F4">
-        <v>1.002316986336653</v>
+        <v>1.050919091200678</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041122171435457</v>
+        <v>1.026187754699131</v>
       </c>
       <c r="J4">
-        <v>1.009199292277367</v>
+        <v>1.03840212569305</v>
       </c>
       <c r="K4">
-        <v>1.011615961827733</v>
+        <v>1.044095922251125</v>
       </c>
       <c r="L4">
-        <v>1.012366828083233</v>
+        <v>1.044649191463329</v>
       </c>
       <c r="M4">
-        <v>1.012387527581562</v>
+        <v>1.053365903434643</v>
       </c>
       <c r="N4">
-        <v>1.007150124486723</v>
+        <v>1.016783110577857</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9913154430610748</v>
+        <v>1.034184865296069</v>
       </c>
       <c r="D5">
-        <v>1.003229694835682</v>
+        <v>1.041927875127717</v>
       </c>
       <c r="E5">
-        <v>1.003983495542418</v>
+        <v>1.042480834711244</v>
       </c>
       <c r="F5">
-        <v>1.004519910557789</v>
+        <v>1.051273997879461</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041880513652485</v>
+        <v>1.026226726306112</v>
       </c>
       <c r="J5">
-        <v>1.010482451250091</v>
+        <v>1.038627963114772</v>
       </c>
       <c r="K5">
-        <v>1.013065669989144</v>
+        <v>1.044345489014111</v>
       </c>
       <c r="L5">
-        <v>1.013810680046785</v>
+        <v>1.044897098224083</v>
       </c>
       <c r="M5">
-        <v>1.01434084944885</v>
+        <v>1.053668992874885</v>
       </c>
       <c r="N5">
-        <v>1.007572990363262</v>
+        <v>1.01685751413139</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9916135962304558</v>
+        <v>1.034239173784485</v>
       </c>
       <c r="D6">
-        <v>1.003511306333708</v>
+        <v>1.041978457856984</v>
       </c>
       <c r="E6">
-        <v>1.004264067264997</v>
+        <v>1.0425311323262</v>
       </c>
       <c r="F6">
-        <v>1.004885576564362</v>
+        <v>1.051333428382213</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042005417638203</v>
+        <v>1.026233135251464</v>
       </c>
       <c r="J6">
-        <v>1.010695661877897</v>
+        <v>1.038665805211978</v>
       </c>
       <c r="K6">
-        <v>1.013306466703616</v>
+        <v>1.044387298160049</v>
       </c>
       <c r="L6">
-        <v>1.014050492980184</v>
+        <v>1.04493862814992</v>
       </c>
       <c r="M6">
-        <v>1.014664802789146</v>
+        <v>1.053719715728934</v>
       </c>
       <c r="N6">
-        <v>1.007643255059969</v>
+        <v>1.01686998132571</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.989547875706693</v>
+        <v>1.033865330217269</v>
       </c>
       <c r="D7">
-        <v>1.001558858688425</v>
+        <v>1.04163014070249</v>
       </c>
       <c r="E7">
-        <v>1.002318771147559</v>
+        <v>1.042184772894229</v>
       </c>
       <c r="F7">
-        <v>1.002346708748628</v>
+        <v>1.050923844204359</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041132469194058</v>
+        <v>1.026188284457674</v>
       </c>
       <c r="J7">
-        <v>1.009216590110326</v>
+        <v>1.038405148508178</v>
       </c>
       <c r="K7">
-        <v>1.011635510845983</v>
+        <v>1.044099263292989</v>
       </c>
       <c r="L7">
-        <v>1.012386298887907</v>
+        <v>1.044652510357559</v>
       </c>
       <c r="M7">
-        <v>1.012413901363868</v>
+        <v>1.053369964542553</v>
       </c>
       <c r="N7">
-        <v>1.007155824928391</v>
+        <v>1.016784106471396</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.980493871193871</v>
+        <v>1.032292481392361</v>
       </c>
       <c r="D8">
-        <v>0.9929646725739667</v>
+        <v>1.040161678795325</v>
       </c>
       <c r="E8">
-        <v>0.9937544835246852</v>
+        <v>1.040724424802958</v>
       </c>
       <c r="F8">
-        <v>0.9910721194674965</v>
+        <v>1.049188589671269</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037105710926578</v>
+        <v>1.025981315236096</v>
       </c>
       <c r="J8">
-        <v>1.002683443368873</v>
+        <v>1.037304439954335</v>
       </c>
       <c r="K8">
-        <v>1.00424079278836</v>
+        <v>1.042881617433399</v>
       </c>
       <c r="L8">
-        <v>1.005019724234459</v>
+        <v>1.043442805426372</v>
       </c>
       <c r="M8">
-        <v>1.002374398243152</v>
+        <v>1.051883754784169</v>
       </c>
       <c r="N8">
-        <v>1.005003006946094</v>
+        <v>1.01642145405254</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9625543189709488</v>
+        <v>1.02948151765874</v>
       </c>
       <c r="D9">
-        <v>0.9757560611457572</v>
+        <v>1.037525921935185</v>
       </c>
       <c r="E9">
-        <v>0.9765979358560168</v>
+        <v>1.038102705002597</v>
       </c>
       <c r="F9">
-        <v>0.9680312812344953</v>
+        <v>1.04604189900554</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028233121255607</v>
+        <v>1.025542776820477</v>
       </c>
       <c r="J9">
-        <v>0.9895023900400671</v>
+        <v>1.035321947860525</v>
       </c>
       <c r="K9">
-        <v>0.9892551202323069</v>
+        <v>1.040683529981103</v>
       </c>
       <c r="L9">
-        <v>0.9900824602864551</v>
+        <v>1.041258438708941</v>
       </c>
       <c r="M9">
-        <v>0.9816652361036272</v>
+        <v>1.049172063069363</v>
       </c>
       <c r="N9">
-        <v>1.000660815877197</v>
+        <v>1.015768213046998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9486772249530112</v>
+        <v>1.027580236189411</v>
       </c>
       <c r="D10">
-        <v>0.9622651239756904</v>
+        <v>1.035735528660811</v>
       </c>
       <c r="E10">
-        <v>0.963140058658558</v>
+        <v>1.036321494317958</v>
       </c>
       <c r="F10">
-        <v>0.9495401435741354</v>
+        <v>1.043882963226861</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02059532840433</v>
+        <v>1.02520038170333</v>
       </c>
       <c r="J10">
-        <v>0.9790862180822951</v>
+        <v>1.033970749572417</v>
       </c>
       <c r="K10">
-        <v>0.9773508391929406</v>
+        <v>1.039182072426321</v>
       </c>
       <c r="L10">
-        <v>0.9782083257692246</v>
+        <v>1.039765944624168</v>
       </c>
       <c r="M10">
-        <v>0.9648844224833275</v>
+        <v>1.047300631330381</v>
       </c>
       <c r="N10">
-        <v>0.9972310273087184</v>
+        <v>1.015322943510497</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9419934380015308</v>
+        <v>1.026750286924182</v>
       </c>
       <c r="D11">
-        <v>0.9557036868811922</v>
+        <v>1.034952179508049</v>
       </c>
       <c r="E11">
-        <v>0.9565919682703607</v>
+        <v>1.035542079560836</v>
       </c>
       <c r="F11">
-        <v>0.9404066536787686</v>
+        <v>1.04293328967074</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016672878648356</v>
+        <v>1.02504014511123</v>
       </c>
       <c r="J11">
-        <v>0.9739956165013545</v>
+        <v>1.033378490735136</v>
       </c>
       <c r="K11">
-        <v>0.9715122751487477</v>
+        <v>1.038523171859824</v>
       </c>
       <c r="L11">
-        <v>0.9723817073370531</v>
+        <v>1.039110881534008</v>
       </c>
       <c r="M11">
-        <v>0.9565472802394097</v>
+        <v>1.04647487924513</v>
       </c>
       <c r="N11">
-        <v>0.9955554332416174</v>
+        <v>1.015127762590115</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9393778459010271</v>
+        <v>1.026440984897</v>
       </c>
       <c r="D12">
-        <v>0.9531235045256461</v>
+        <v>1.034659972950996</v>
       </c>
       <c r="E12">
-        <v>0.9540165030174834</v>
+        <v>1.035251328125568</v>
       </c>
       <c r="F12">
-        <v>0.9367889357836652</v>
+        <v>1.042578278655305</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015093092639793</v>
+        <v>1.024978815975375</v>
       </c>
       <c r="J12">
-        <v>0.9719894828643449</v>
+        <v>1.033157404915053</v>
       </c>
       <c r="K12">
-        <v>0.9692074768196853</v>
+        <v>1.038277092452249</v>
       </c>
       <c r="L12">
-        <v>0.9700810820982506</v>
+        <v>1.038866220934579</v>
       </c>
       <c r="M12">
-        <v>0.9532363564717791</v>
+        <v>1.046165814397414</v>
       </c>
       <c r="N12">
-        <v>0.9948952283306057</v>
+        <v>1.015054901556089</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.939945618658937</v>
+        <v>1.026507377775784</v>
       </c>
       <c r="D13">
-        <v>0.9536842130303941</v>
+        <v>1.034722708494214</v>
       </c>
       <c r="E13">
-        <v>0.9545762128280607</v>
+        <v>1.035313751825119</v>
       </c>
       <c r="F13">
-        <v>0.9375763920527803</v>
+        <v>1.04265453249972</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01543820658879</v>
+        <v>1.024992053377998</v>
       </c>
       <c r="J13">
-        <v>0.9724256504905511</v>
+        <v>1.0332048783642</v>
       </c>
       <c r="K13">
-        <v>0.9697087710018671</v>
+        <v>1.038329938011782</v>
       </c>
       <c r="L13">
-        <v>0.9705814953908918</v>
+        <v>1.038918762454145</v>
       </c>
       <c r="M13">
-        <v>0.9539574493391696</v>
+        <v>1.046232216394952</v>
       </c>
       <c r="N13">
-        <v>0.9950387619945443</v>
+        <v>1.015070546969028</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9417801899883894</v>
+        <v>1.026724740876676</v>
       </c>
       <c r="D14">
-        <v>0.9554935974049912</v>
+        <v>1.034928050948538</v>
       </c>
       <c r="E14">
-        <v>0.9563822744013498</v>
+        <v>1.035518071410544</v>
       </c>
       <c r="F14">
-        <v>0.9401126429415279</v>
+        <v>1.042903990634568</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016545038041194</v>
+        <v>1.025035112617277</v>
       </c>
       <c r="J14">
-        <v>0.9738323598550118</v>
+        <v>1.033360238133812</v>
       </c>
       <c r="K14">
-        <v>0.9713247973978242</v>
+        <v>1.038502858190741</v>
       </c>
       <c r="L14">
-        <v>0.9721945807222817</v>
+        <v>1.039090685278883</v>
       </c>
       <c r="M14">
-        <v>0.956278384802054</v>
+        <v>1.046449379832137</v>
       </c>
       <c r="N14">
-        <v>0.9955017039190186</v>
+        <v>1.01512174729285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9428916778174967</v>
+        <v>1.02685852948759</v>
       </c>
       <c r="D15">
-        <v>0.9565881023832777</v>
+        <v>1.035054404859826</v>
       </c>
       <c r="E15">
-        <v>0.9574746963012218</v>
+        <v>1.035643794264686</v>
       </c>
       <c r="F15">
-        <v>0.9416432743707058</v>
+        <v>1.043057389616446</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017209514953021</v>
+        <v>1.02506140263912</v>
       </c>
       <c r="J15">
-        <v>0.974682701800624</v>
+        <v>1.033455814898192</v>
       </c>
       <c r="K15">
-        <v>0.9723011364911837</v>
+        <v>1.038609222631388</v>
       </c>
       <c r="L15">
-        <v>0.9731690687297601</v>
+        <v>1.039196434341065</v>
       </c>
       <c r="M15">
-        <v>0.9576779115439731</v>
+        <v>1.046582869937195</v>
       </c>
       <c r="N15">
-        <v>0.9957815646940165</v>
+        <v>1.015153245355113</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.949104251121023</v>
+        <v>1.027635174890876</v>
       </c>
       <c r="D16">
-        <v>0.9626828469514509</v>
+        <v>1.03578734474474</v>
       </c>
       <c r="E16">
-        <v>0.9635568686610226</v>
+        <v>1.036373048408357</v>
       </c>
       <c r="F16">
-        <v>0.9501184449199762</v>
+        <v>1.043945674713279</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020840451955538</v>
+        <v>1.025210762842183</v>
       </c>
       <c r="J16">
-        <v>0.979409764731232</v>
+        <v>1.034009903228937</v>
       </c>
       <c r="K16">
-        <v>0.9777214547160387</v>
+        <v>1.039225615388944</v>
       </c>
       <c r="L16">
-        <v>0.9785781181480195</v>
+        <v>1.039809231981907</v>
       </c>
       <c r="M16">
-        <v>0.9654112430959437</v>
+        <v>1.047355106707667</v>
       </c>
       <c r="N16">
-        <v>0.9973375386172104</v>
+        <v>1.015335846527726</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9528028502049657</v>
+        <v>1.028120542666399</v>
       </c>
       <c r="D17">
-        <v>0.9662937504128031</v>
+        <v>1.036244917464832</v>
       </c>
       <c r="E17">
-        <v>0.9671595763267137</v>
+        <v>1.036828297976999</v>
       </c>
       <c r="F17">
-        <v>0.9551019098968316</v>
+        <v>1.044498878451169</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02293647446583</v>
+        <v>1.025301238674405</v>
       </c>
       <c r="J17">
-        <v>0.9822038774257824</v>
+        <v>1.034355534858682</v>
       </c>
       <c r="K17">
-        <v>0.9809197613762077</v>
+        <v>1.039609904462531</v>
       </c>
       <c r="L17">
-        <v>0.9817690074855729</v>
+        <v>1.040191254199464</v>
       </c>
       <c r="M17">
-        <v>0.9699457892239227</v>
+        <v>1.047835365140952</v>
       </c>
       <c r="N17">
-        <v>0.9982574270668539</v>
+        <v>1.015449747684028</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9548977628641391</v>
+        <v>1.028403006048594</v>
       </c>
       <c r="D18">
-        <v>0.9683334735518937</v>
+        <v>1.036511032008794</v>
       </c>
       <c r="E18">
-        <v>0.9691944339912282</v>
+        <v>1.037093053441584</v>
       </c>
       <c r="F18">
-        <v>0.957904775570509</v>
+        <v>1.044820123130535</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024102309548608</v>
+        <v>1.025352856846279</v>
       </c>
       <c r="J18">
-        <v>0.9837800540916124</v>
+        <v>1.034556444179192</v>
       </c>
       <c r="K18">
-        <v>0.9827221561286906</v>
+        <v>1.039833209910808</v>
       </c>
       <c r="L18">
-        <v>0.983566977563846</v>
+        <v>1.040413233208276</v>
       </c>
       <c r="M18">
-        <v>0.9724919663757559</v>
+        <v>1.048114006969506</v>
       </c>
       <c r="N18">
-        <v>0.9987763947622348</v>
+        <v>1.015515955389251</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9556022054533958</v>
+        <v>1.028499210156794</v>
       </c>
       <c r="D19">
-        <v>0.9690184842369293</v>
+        <v>1.036601638476841</v>
       </c>
       <c r="E19">
-        <v>0.9698777732653139</v>
+        <v>1.037183195816576</v>
       </c>
       <c r="F19">
-        <v>0.958844118675687</v>
+        <v>1.044929417654346</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024490887590542</v>
+        <v>1.025370261733321</v>
       </c>
       <c r="J19">
-        <v>0.9843090372656049</v>
+        <v>1.034624832190018</v>
       </c>
       <c r="K19">
-        <v>0.983326774120043</v>
+        <v>1.03990920870265</v>
       </c>
       <c r="L19">
-        <v>0.9841700722695949</v>
+        <v>1.040488779003357</v>
       </c>
       <c r="M19">
-        <v>0.9733445996324319</v>
+        <v>1.048208765624032</v>
       </c>
       <c r="N19">
-        <v>0.9989505746188061</v>
+        <v>1.01553849182926</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9524126600273722</v>
+        <v>1.028068533978368</v>
       </c>
       <c r="D20">
-        <v>0.9659134046512675</v>
+        <v>1.036195905045823</v>
       </c>
       <c r="E20">
-        <v>0.9667801191931603</v>
+        <v>1.036779535226545</v>
       </c>
       <c r="F20">
-        <v>0.9545782923688007</v>
+        <v>1.04443967302105</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022717629628166</v>
+        <v>1.025291650999754</v>
       </c>
       <c r="J20">
-        <v>0.9819097958145412</v>
+        <v>1.034318523518563</v>
       </c>
       <c r="K20">
-        <v>0.9805833300009287</v>
+        <v>1.039568761296737</v>
       </c>
       <c r="L20">
-        <v>0.9814333826060117</v>
+        <v>1.040150354682609</v>
       </c>
       <c r="M20">
-        <v>0.96946978788668</v>
+        <v>1.047783991736799</v>
       </c>
       <c r="N20">
-        <v>0.9981606026960739</v>
+        <v>1.015437550881722</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.941243965944929</v>
+        <v>1.026660761220464</v>
       </c>
       <c r="D21">
-        <v>0.9549651046389366</v>
+        <v>1.034867616988372</v>
       </c>
       <c r="E21">
-        <v>0.9558547678466032</v>
+        <v>1.035457938833527</v>
       </c>
       <c r="F21">
-        <v>0.939372604564911</v>
+        <v>1.042830594070659</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016222827269285</v>
+        <v>1.02502248280375</v>
       </c>
       <c r="J21">
-        <v>0.9734216062945638</v>
+        <v>1.033314518897911</v>
       </c>
       <c r="K21">
-        <v>0.9708530381628061</v>
+        <v>1.038451974496713</v>
       </c>
       <c r="L21">
-        <v>0.9717236959600221</v>
+        <v>1.039040095463278</v>
       </c>
       <c r="M21">
-        <v>0.9556014199796483</v>
+        <v>1.046385495549979</v>
       </c>
       <c r="N21">
-        <v>0.995366523074629</v>
+        <v>1.01510668011343</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9334207851248256</v>
+        <v>1.025769716515237</v>
       </c>
       <c r="D22">
-        <v>0.9472187862136258</v>
+        <v>1.034025309250928</v>
       </c>
       <c r="E22">
-        <v>0.9481213786643358</v>
+        <v>1.034619802018423</v>
       </c>
       <c r="F22">
-        <v>0.928452396845348</v>
+        <v>1.041805810432374</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011397245620584</v>
+        <v>1.024842767204449</v>
       </c>
       <c r="J22">
-        <v>0.9673892713483526</v>
+        <v>1.032676920420429</v>
       </c>
       <c r="K22">
-        <v>0.963913737964764</v>
+        <v>1.037742076021844</v>
       </c>
       <c r="L22">
-        <v>0.964795713666648</v>
+        <v>1.038334262927466</v>
       </c>
       <c r="M22">
-        <v>0.945588212279582</v>
+        <v>1.045492629820329</v>
       </c>
       <c r="N22">
-        <v>0.9933816096932455</v>
+        <v>1.014896550488686</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.937659955737501</v>
+        <v>1.026242643784703</v>
       </c>
       <c r="D23">
-        <v>0.9514248391334205</v>
+        <v>1.034472517963035</v>
       </c>
       <c r="E23">
-        <v>0.9523207720712873</v>
+        <v>1.035064803102803</v>
       </c>
       <c r="F23">
-        <v>0.934398964710668</v>
+        <v>1.042350319197268</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014041422671306</v>
+        <v>1.024939034947364</v>
       </c>
       <c r="J23">
-        <v>0.9706674098442061</v>
+        <v>1.033015529935817</v>
       </c>
       <c r="K23">
-        <v>0.9676873393334562</v>
+        <v>1.038119145788395</v>
       </c>
       <c r="L23">
-        <v>0.9685635237298041</v>
+        <v>1.038709180894566</v>
       </c>
       <c r="M23">
-        <v>0.9510463873151253</v>
+        <v>1.045967251657155</v>
       </c>
       <c r="N23">
-        <v>0.9944601828771487</v>
+        <v>1.015008144840057</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9525891609280338</v>
+        <v>1.028092036453504</v>
       </c>
       <c r="D24">
-        <v>0.9660854695450043</v>
+        <v>1.036218054057502</v>
       </c>
       <c r="E24">
-        <v>0.9669517828106271</v>
+        <v>1.036801571436182</v>
       </c>
       <c r="F24">
-        <v>0.9548152099216127</v>
+        <v>1.044466429823109</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022816689488259</v>
+        <v>1.025295986825361</v>
       </c>
       <c r="J24">
-        <v>0.9820428423253702</v>
+        <v>1.034335249487071</v>
       </c>
       <c r="K24">
-        <v>0.9807355416780196</v>
+        <v>1.03958735472931</v>
       </c>
       <c r="L24">
-        <v>0.9815852301596766</v>
+        <v>1.040168838033752</v>
       </c>
       <c r="M24">
-        <v>0.9696851739703233</v>
+        <v>1.047807209753721</v>
       </c>
       <c r="N24">
-        <v>0.9982044071916221</v>
+        <v>1.015443062798854</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9674760463946995</v>
+        <v>1.030212969209207</v>
       </c>
       <c r="D25">
-        <v>0.9805019202547323</v>
+        <v>1.038213117447244</v>
       </c>
       <c r="E25">
-        <v>0.9813304999341365</v>
+        <v>1.038786302485109</v>
       </c>
       <c r="F25">
-        <v>0.9744464363317454</v>
+        <v>1.046866066599899</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030780821781842</v>
+        <v>1.025664936159382</v>
       </c>
       <c r="J25">
-        <v>0.9931498331422257</v>
+        <v>1.035839621964143</v>
       </c>
       <c r="K25">
-        <v>0.9934106529063151</v>
+        <v>1.041258082250312</v>
       </c>
       <c r="L25">
-        <v>0.9942257188732025</v>
+        <v>1.041829476149565</v>
       </c>
       <c r="M25">
-        <v>0.9874548291071662</v>
+        <v>1.049884219724321</v>
       </c>
       <c r="N25">
-        <v>1.001862182194035</v>
+        <v>1.015938796845746</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031884919460599</v>
+        <v>0.9780439437921868</v>
       </c>
       <c r="D2">
-        <v>1.039780398609737</v>
+        <v>0.9906288811199573</v>
       </c>
       <c r="E2">
-        <v>1.040345215763777</v>
+        <v>0.9914263744263124</v>
       </c>
       <c r="F2">
-        <v>1.048735872445487</v>
+        <v>0.98798063142714</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02592303400647</v>
+        <v>1.035962301739697</v>
       </c>
       <c r="J2">
-        <v>1.037018184258537</v>
+        <v>1.000901792791288</v>
       </c>
       <c r="K2">
-        <v>1.042564613932337</v>
+        <v>1.002220333037283</v>
       </c>
       <c r="L2">
-        <v>1.043127827785265</v>
+        <v>1.003006460025857</v>
       </c>
       <c r="M2">
-        <v>1.051494887174389</v>
+        <v>0.9996099943672303</v>
       </c>
       <c r="N2">
-        <v>1.016327136406408</v>
+        <v>1.004415975724914</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033087756228901</v>
+        <v>0.98514796288372</v>
       </c>
       <c r="D3">
-        <v>1.040904770533465</v>
+        <v>0.9973898516561425</v>
       </c>
       <c r="E3">
-        <v>1.041463438377412</v>
+        <v>0.9981645884178613</v>
       </c>
       <c r="F3">
-        <v>1.050068373434721</v>
+        <v>0.9968973443192947</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026089590951505</v>
+        <v>1.039215529366234</v>
       </c>
       <c r="J3">
-        <v>1.037861795254908</v>
+        <v>1.006051864120491</v>
       </c>
       <c r="K3">
-        <v>1.043498447266986</v>
+        <v>1.008056239120715</v>
       </c>
       <c r="L3">
-        <v>1.044055644888622</v>
+        <v>1.008821007671517</v>
       </c>
       <c r="M3">
-        <v>1.052638148005665</v>
+        <v>1.007570078743818</v>
       </c>
       <c r="N3">
-        <v>1.016605090389138</v>
+        <v>1.00611293522959</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033860997972303</v>
+        <v>0.9895237528204762</v>
       </c>
       <c r="D4">
-        <v>1.041626102621187</v>
+        <v>1.001536040172114</v>
       </c>
       <c r="E4">
-        <v>1.042180757432614</v>
+        <v>1.002296035421117</v>
       </c>
       <c r="F4">
-        <v>1.050919091200678</v>
+        <v>1.002316986336652</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026187754699131</v>
+        <v>1.041122171435457</v>
       </c>
       <c r="J4">
-        <v>1.03840212569305</v>
+        <v>1.009199292277367</v>
       </c>
       <c r="K4">
-        <v>1.044095922251125</v>
+        <v>1.011615961827733</v>
       </c>
       <c r="L4">
-        <v>1.044649191463329</v>
+        <v>1.012366828083233</v>
       </c>
       <c r="M4">
-        <v>1.053365903434643</v>
+        <v>1.012387527581561</v>
       </c>
       <c r="N4">
-        <v>1.016783110577857</v>
+        <v>1.007150124486723</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034184865296069</v>
+        <v>0.9913154430610751</v>
       </c>
       <c r="D5">
-        <v>1.041927875127717</v>
+        <v>1.003229694835682</v>
       </c>
       <c r="E5">
-        <v>1.042480834711244</v>
+        <v>1.003983495542419</v>
       </c>
       <c r="F5">
-        <v>1.051273997879461</v>
+        <v>1.00451991055779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026226726306112</v>
+        <v>1.041880513652486</v>
       </c>
       <c r="J5">
-        <v>1.038627963114772</v>
+        <v>1.010482451250091</v>
       </c>
       <c r="K5">
-        <v>1.044345489014111</v>
+        <v>1.013065669989144</v>
       </c>
       <c r="L5">
-        <v>1.044897098224083</v>
+        <v>1.013810680046785</v>
       </c>
       <c r="M5">
-        <v>1.053668992874885</v>
+        <v>1.01434084944885</v>
       </c>
       <c r="N5">
-        <v>1.01685751413139</v>
+        <v>1.007572990363262</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034239173784485</v>
+        <v>0.9916135962304558</v>
       </c>
       <c r="D6">
-        <v>1.041978457856984</v>
+        <v>1.003511306333708</v>
       </c>
       <c r="E6">
-        <v>1.0425311323262</v>
+        <v>1.004264067264997</v>
       </c>
       <c r="F6">
-        <v>1.051333428382213</v>
+        <v>1.004885576564362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026233135251464</v>
+        <v>1.042005417638203</v>
       </c>
       <c r="J6">
-        <v>1.038665805211978</v>
+        <v>1.010695661877897</v>
       </c>
       <c r="K6">
-        <v>1.044387298160049</v>
+        <v>1.013306466703616</v>
       </c>
       <c r="L6">
-        <v>1.04493862814992</v>
+        <v>1.014050492980184</v>
       </c>
       <c r="M6">
-        <v>1.053719715728934</v>
+        <v>1.014664802789147</v>
       </c>
       <c r="N6">
-        <v>1.01686998132571</v>
+        <v>1.007643255059969</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033865330217269</v>
+        <v>0.9895478757066922</v>
       </c>
       <c r="D7">
-        <v>1.04163014070249</v>
+        <v>1.001558858688425</v>
       </c>
       <c r="E7">
-        <v>1.042184772894229</v>
+        <v>1.002318771147558</v>
       </c>
       <c r="F7">
-        <v>1.050923844204359</v>
+        <v>1.002346708748628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026188284457674</v>
+        <v>1.041132469194058</v>
       </c>
       <c r="J7">
-        <v>1.038405148508178</v>
+        <v>1.009216590110325</v>
       </c>
       <c r="K7">
-        <v>1.044099263292989</v>
+        <v>1.011635510845982</v>
       </c>
       <c r="L7">
-        <v>1.044652510357559</v>
+        <v>1.012386298887906</v>
       </c>
       <c r="M7">
-        <v>1.053369964542553</v>
+        <v>1.012413901363867</v>
       </c>
       <c r="N7">
-        <v>1.016784106471396</v>
+        <v>1.007155824928391</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032292481392361</v>
+        <v>0.9804938711938713</v>
       </c>
       <c r="D8">
-        <v>1.040161678795325</v>
+        <v>0.992964672573967</v>
       </c>
       <c r="E8">
-        <v>1.040724424802958</v>
+        <v>0.9937544835246857</v>
       </c>
       <c r="F8">
-        <v>1.049188589671269</v>
+        <v>0.9910721194674968</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025981315236096</v>
+        <v>1.037105710926579</v>
       </c>
       <c r="J8">
-        <v>1.037304439954335</v>
+        <v>1.002683443368873</v>
       </c>
       <c r="K8">
-        <v>1.042881617433399</v>
+        <v>1.004240792788361</v>
       </c>
       <c r="L8">
-        <v>1.043442805426372</v>
+        <v>1.005019724234459</v>
       </c>
       <c r="M8">
-        <v>1.051883754784169</v>
+        <v>1.002374398243152</v>
       </c>
       <c r="N8">
-        <v>1.01642145405254</v>
+        <v>1.005003006946094</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02948151765874</v>
+        <v>0.9625543189709489</v>
       </c>
       <c r="D9">
-        <v>1.037525921935185</v>
+        <v>0.9757560611457576</v>
       </c>
       <c r="E9">
-        <v>1.038102705002597</v>
+        <v>0.976597935856017</v>
       </c>
       <c r="F9">
-        <v>1.04604189900554</v>
+        <v>0.9680312812344954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025542776820477</v>
+        <v>1.028233121255607</v>
       </c>
       <c r="J9">
-        <v>1.035321947860525</v>
+        <v>0.9895023900400673</v>
       </c>
       <c r="K9">
-        <v>1.040683529981103</v>
+        <v>0.9892551202323072</v>
       </c>
       <c r="L9">
-        <v>1.041258438708941</v>
+        <v>0.9900824602864551</v>
       </c>
       <c r="M9">
-        <v>1.049172063069363</v>
+        <v>0.9816652361036274</v>
       </c>
       <c r="N9">
-        <v>1.015768213046998</v>
+        <v>1.000660815877197</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027580236189411</v>
+        <v>0.9486772249530114</v>
       </c>
       <c r="D10">
-        <v>1.035735528660811</v>
+        <v>0.9622651239756903</v>
       </c>
       <c r="E10">
-        <v>1.036321494317958</v>
+        <v>0.9631400586585579</v>
       </c>
       <c r="F10">
-        <v>1.043882963226861</v>
+        <v>0.9495401435741355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02520038170333</v>
+        <v>1.02059532840433</v>
       </c>
       <c r="J10">
-        <v>1.033970749572417</v>
+        <v>0.9790862180822952</v>
       </c>
       <c r="K10">
-        <v>1.039182072426321</v>
+        <v>0.9773508391929405</v>
       </c>
       <c r="L10">
-        <v>1.039765944624168</v>
+        <v>0.9782083257692247</v>
       </c>
       <c r="M10">
-        <v>1.047300631330381</v>
+        <v>0.9648844224833275</v>
       </c>
       <c r="N10">
-        <v>1.015322943510497</v>
+        <v>0.9972310273087184</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026750286924182</v>
+        <v>0.9419934380015308</v>
       </c>
       <c r="D11">
-        <v>1.034952179508049</v>
+        <v>0.955703686881192</v>
       </c>
       <c r="E11">
-        <v>1.035542079560836</v>
+        <v>0.9565919682703605</v>
       </c>
       <c r="F11">
-        <v>1.04293328967074</v>
+        <v>0.9404066536787682</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02504014511123</v>
+        <v>1.016672878648356</v>
       </c>
       <c r="J11">
-        <v>1.033378490735136</v>
+        <v>0.9739956165013546</v>
       </c>
       <c r="K11">
-        <v>1.038523171859824</v>
+        <v>0.9715122751487476</v>
       </c>
       <c r="L11">
-        <v>1.039110881534008</v>
+        <v>0.972381707337053</v>
       </c>
       <c r="M11">
-        <v>1.04647487924513</v>
+        <v>0.9565472802394094</v>
       </c>
       <c r="N11">
-        <v>1.015127762590115</v>
+        <v>0.9955554332416175</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026440984897</v>
+        <v>0.9393778459010269</v>
       </c>
       <c r="D12">
-        <v>1.034659972950996</v>
+        <v>0.9531235045256459</v>
       </c>
       <c r="E12">
-        <v>1.035251328125568</v>
+        <v>0.9540165030174831</v>
       </c>
       <c r="F12">
-        <v>1.042578278655305</v>
+        <v>0.9367889357836651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024978815975375</v>
+        <v>1.015093092639793</v>
       </c>
       <c r="J12">
-        <v>1.033157404915053</v>
+        <v>0.9719894828643447</v>
       </c>
       <c r="K12">
-        <v>1.038277092452249</v>
+        <v>0.9692074768196852</v>
       </c>
       <c r="L12">
-        <v>1.038866220934579</v>
+        <v>0.9700810820982503</v>
       </c>
       <c r="M12">
-        <v>1.046165814397414</v>
+        <v>0.953236356471779</v>
       </c>
       <c r="N12">
-        <v>1.015054901556089</v>
+        <v>0.9948952283306057</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026507377775784</v>
+        <v>0.9399456186589367</v>
       </c>
       <c r="D13">
-        <v>1.034722708494214</v>
+        <v>0.953684213030394</v>
       </c>
       <c r="E13">
-        <v>1.035313751825119</v>
+        <v>0.9545762128280602</v>
       </c>
       <c r="F13">
-        <v>1.04265453249972</v>
+        <v>0.9375763920527801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024992053377998</v>
+        <v>1.01543820658879</v>
       </c>
       <c r="J13">
-        <v>1.0332048783642</v>
+        <v>0.9724256504905506</v>
       </c>
       <c r="K13">
-        <v>1.038329938011782</v>
+        <v>0.9697087710018668</v>
       </c>
       <c r="L13">
-        <v>1.038918762454145</v>
+        <v>0.9705814953908912</v>
       </c>
       <c r="M13">
-        <v>1.046232216394952</v>
+        <v>0.9539574493391693</v>
       </c>
       <c r="N13">
-        <v>1.015070546969028</v>
+        <v>0.9950387619945442</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026724740876676</v>
+        <v>0.9417801899883901</v>
       </c>
       <c r="D14">
-        <v>1.034928050948538</v>
+        <v>0.9554935974049914</v>
       </c>
       <c r="E14">
-        <v>1.035518071410544</v>
+        <v>0.9563822744013502</v>
       </c>
       <c r="F14">
-        <v>1.042903990634568</v>
+        <v>0.9401126429415283</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025035112617277</v>
+        <v>1.016545038041194</v>
       </c>
       <c r="J14">
-        <v>1.033360238133812</v>
+        <v>0.9738323598550122</v>
       </c>
       <c r="K14">
-        <v>1.038502858190741</v>
+        <v>0.9713247973978245</v>
       </c>
       <c r="L14">
-        <v>1.039090685278883</v>
+        <v>0.9721945807222822</v>
       </c>
       <c r="M14">
-        <v>1.046449379832137</v>
+        <v>0.9562783848020543</v>
       </c>
       <c r="N14">
-        <v>1.01512174729285</v>
+        <v>0.9955017039190188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02685852948759</v>
+        <v>0.9428916778174963</v>
       </c>
       <c r="D15">
-        <v>1.035054404859826</v>
+        <v>0.9565881023832769</v>
       </c>
       <c r="E15">
-        <v>1.035643794264686</v>
+        <v>0.9574746963012211</v>
       </c>
       <c r="F15">
-        <v>1.043057389616446</v>
+        <v>0.9416432743707051</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02506140263912</v>
+        <v>1.01720951495302</v>
       </c>
       <c r="J15">
-        <v>1.033455814898192</v>
+        <v>0.9746827018006234</v>
       </c>
       <c r="K15">
-        <v>1.038609222631388</v>
+        <v>0.9723011364911828</v>
       </c>
       <c r="L15">
-        <v>1.039196434341065</v>
+        <v>0.9731690687297594</v>
       </c>
       <c r="M15">
-        <v>1.046582869937195</v>
+        <v>0.9576779115439721</v>
       </c>
       <c r="N15">
-        <v>1.015153245355113</v>
+        <v>0.9957815646940162</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027635174890876</v>
+        <v>0.9491042511210239</v>
       </c>
       <c r="D16">
-        <v>1.03578734474474</v>
+        <v>0.9626828469514517</v>
       </c>
       <c r="E16">
-        <v>1.036373048408357</v>
+        <v>0.9635568686610233</v>
       </c>
       <c r="F16">
-        <v>1.043945674713279</v>
+        <v>0.9501184449199768</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025210762842183</v>
+        <v>1.020840451955538</v>
       </c>
       <c r="J16">
-        <v>1.034009903228937</v>
+        <v>0.9794097647312328</v>
       </c>
       <c r="K16">
-        <v>1.039225615388944</v>
+        <v>0.9777214547160396</v>
       </c>
       <c r="L16">
-        <v>1.039809231981907</v>
+        <v>0.9785781181480202</v>
       </c>
       <c r="M16">
-        <v>1.047355106707667</v>
+        <v>0.9654112430959442</v>
       </c>
       <c r="N16">
-        <v>1.015335846527726</v>
+        <v>0.9973375386172108</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028120542666399</v>
+        <v>0.9528028502049671</v>
       </c>
       <c r="D17">
-        <v>1.036244917464832</v>
+        <v>0.9662937504128046</v>
       </c>
       <c r="E17">
-        <v>1.036828297976999</v>
+        <v>0.9671595763267155</v>
       </c>
       <c r="F17">
-        <v>1.044498878451169</v>
+        <v>0.9551019098968335</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025301238674405</v>
+        <v>1.022936474465831</v>
       </c>
       <c r="J17">
-        <v>1.034355534858682</v>
+        <v>0.9822038774257839</v>
       </c>
       <c r="K17">
-        <v>1.039609904462531</v>
+        <v>0.9809197613762093</v>
       </c>
       <c r="L17">
-        <v>1.040191254199464</v>
+        <v>0.9817690074855745</v>
       </c>
       <c r="M17">
-        <v>1.047835365140952</v>
+        <v>0.9699457892239244</v>
       </c>
       <c r="N17">
-        <v>1.015449747684028</v>
+        <v>0.9982574270668545</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028403006048594</v>
+        <v>0.9548977628641383</v>
       </c>
       <c r="D18">
-        <v>1.036511032008794</v>
+        <v>0.9683334735518926</v>
       </c>
       <c r="E18">
-        <v>1.037093053441584</v>
+        <v>0.9691944339912274</v>
       </c>
       <c r="F18">
-        <v>1.044820123130535</v>
+        <v>0.9579047755705083</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025352856846279</v>
+        <v>1.024102309548607</v>
       </c>
       <c r="J18">
-        <v>1.034556444179192</v>
+        <v>0.9837800540916117</v>
       </c>
       <c r="K18">
-        <v>1.039833209910808</v>
+        <v>0.9827221561286897</v>
       </c>
       <c r="L18">
-        <v>1.040413233208276</v>
+        <v>0.9835669775638453</v>
       </c>
       <c r="M18">
-        <v>1.048114006969506</v>
+        <v>0.9724919663757552</v>
       </c>
       <c r="N18">
-        <v>1.015515955389251</v>
+        <v>0.9987763947622346</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028499210156794</v>
+        <v>0.9556022054533955</v>
       </c>
       <c r="D19">
-        <v>1.036601638476841</v>
+        <v>0.9690184842369287</v>
       </c>
       <c r="E19">
-        <v>1.037183195816576</v>
+        <v>0.9698777732653133</v>
       </c>
       <c r="F19">
-        <v>1.044929417654346</v>
+        <v>0.9588441186756864</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025370261733321</v>
+        <v>1.024490887590541</v>
       </c>
       <c r="J19">
-        <v>1.034624832190018</v>
+        <v>0.9843090372656045</v>
       </c>
       <c r="K19">
-        <v>1.03990920870265</v>
+        <v>0.9833267741200424</v>
       </c>
       <c r="L19">
-        <v>1.040488779003357</v>
+        <v>0.9841700722695944</v>
       </c>
       <c r="M19">
-        <v>1.048208765624032</v>
+        <v>0.9733445996324315</v>
       </c>
       <c r="N19">
-        <v>1.01553849182926</v>
+        <v>0.9989505746188058</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028068533978368</v>
+        <v>0.9524126600273717</v>
       </c>
       <c r="D20">
-        <v>1.036195905045823</v>
+        <v>0.9659134046512672</v>
       </c>
       <c r="E20">
-        <v>1.036779535226545</v>
+        <v>0.9667801191931598</v>
       </c>
       <c r="F20">
-        <v>1.04443967302105</v>
+        <v>0.9545782923688002</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025291650999754</v>
+        <v>1.022717629628166</v>
       </c>
       <c r="J20">
-        <v>1.034318523518563</v>
+        <v>0.9819097958145409</v>
       </c>
       <c r="K20">
-        <v>1.039568761296737</v>
+        <v>0.9805833300009281</v>
       </c>
       <c r="L20">
-        <v>1.040150354682609</v>
+        <v>0.9814333826060111</v>
       </c>
       <c r="M20">
-        <v>1.047783991736799</v>
+        <v>0.9694697878866796</v>
       </c>
       <c r="N20">
-        <v>1.015437550881722</v>
+        <v>0.9981606026960738</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026660761220464</v>
+        <v>0.9412439659449289</v>
       </c>
       <c r="D21">
-        <v>1.034867616988372</v>
+        <v>0.9549651046389365</v>
       </c>
       <c r="E21">
-        <v>1.035457938833527</v>
+        <v>0.9558547678466029</v>
       </c>
       <c r="F21">
-        <v>1.042830594070659</v>
+        <v>0.9393726045649111</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02502248280375</v>
+        <v>1.016222827269285</v>
       </c>
       <c r="J21">
-        <v>1.033314518897911</v>
+        <v>0.9734216062945636</v>
       </c>
       <c r="K21">
-        <v>1.038451974496713</v>
+        <v>0.9708530381628061</v>
       </c>
       <c r="L21">
-        <v>1.039040095463278</v>
+        <v>0.9717236959600218</v>
       </c>
       <c r="M21">
-        <v>1.046385495549979</v>
+        <v>0.9556014199796484</v>
       </c>
       <c r="N21">
-        <v>1.01510668011343</v>
+        <v>0.995366523074629</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025769716515237</v>
+        <v>0.933420785124826</v>
       </c>
       <c r="D22">
-        <v>1.034025309250928</v>
+        <v>0.9472187862136261</v>
       </c>
       <c r="E22">
-        <v>1.034619802018423</v>
+        <v>0.9481213786643361</v>
       </c>
       <c r="F22">
-        <v>1.041805810432374</v>
+        <v>0.9284523968453484</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024842767204449</v>
+        <v>1.011397245620584</v>
       </c>
       <c r="J22">
-        <v>1.032676920420429</v>
+        <v>0.967389271348353</v>
       </c>
       <c r="K22">
-        <v>1.037742076021844</v>
+        <v>0.9639137379647643</v>
       </c>
       <c r="L22">
-        <v>1.038334262927466</v>
+        <v>0.9647957136666483</v>
       </c>
       <c r="M22">
-        <v>1.045492629820329</v>
+        <v>0.9455882122795825</v>
       </c>
       <c r="N22">
-        <v>1.014896550488686</v>
+        <v>0.9933816096932457</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026242643784703</v>
+        <v>0.9376599557375013</v>
       </c>
       <c r="D23">
-        <v>1.034472517963035</v>
+        <v>0.9514248391334208</v>
       </c>
       <c r="E23">
-        <v>1.035064803102803</v>
+        <v>0.9523207720712875</v>
       </c>
       <c r="F23">
-        <v>1.042350319197268</v>
+        <v>0.9343989647106684</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024939034947364</v>
+        <v>1.014041422671305</v>
       </c>
       <c r="J23">
-        <v>1.033015529935817</v>
+        <v>0.9706674098442062</v>
       </c>
       <c r="K23">
-        <v>1.038119145788395</v>
+        <v>0.9676873393334563</v>
       </c>
       <c r="L23">
-        <v>1.038709180894566</v>
+        <v>0.9685635237298044</v>
       </c>
       <c r="M23">
-        <v>1.045967251657155</v>
+        <v>0.9510463873151255</v>
       </c>
       <c r="N23">
-        <v>1.015008144840057</v>
+        <v>0.9944601828771487</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028092036453504</v>
+        <v>0.952589160928033</v>
       </c>
       <c r="D24">
-        <v>1.036218054057502</v>
+        <v>0.9660854695450036</v>
       </c>
       <c r="E24">
-        <v>1.036801571436182</v>
+        <v>0.9669517828106267</v>
       </c>
       <c r="F24">
-        <v>1.044466429823109</v>
+        <v>0.9548152099216124</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025295986825361</v>
+        <v>1.022816689488258</v>
       </c>
       <c r="J24">
-        <v>1.034335249487071</v>
+        <v>0.9820428423253696</v>
       </c>
       <c r="K24">
-        <v>1.03958735472931</v>
+        <v>0.9807355416780188</v>
       </c>
       <c r="L24">
-        <v>1.040168838033752</v>
+        <v>0.9815852301596764</v>
       </c>
       <c r="M24">
-        <v>1.047807209753721</v>
+        <v>0.9696851739703229</v>
       </c>
       <c r="N24">
-        <v>1.015443062798854</v>
+        <v>0.998204407191622</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030212969209207</v>
+        <v>0.967476046394699</v>
       </c>
       <c r="D25">
-        <v>1.038213117447244</v>
+        <v>0.9805019202547318</v>
       </c>
       <c r="E25">
-        <v>1.038786302485109</v>
+        <v>0.981330499934136</v>
       </c>
       <c r="F25">
-        <v>1.046866066599899</v>
+        <v>0.9744464363317451</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025664936159382</v>
+        <v>1.030780821781842</v>
       </c>
       <c r="J25">
-        <v>1.035839621964143</v>
+        <v>0.9931498331422254</v>
       </c>
       <c r="K25">
-        <v>1.041258082250312</v>
+        <v>0.9934106529063148</v>
       </c>
       <c r="L25">
-        <v>1.041829476149565</v>
+        <v>0.9942257188732021</v>
       </c>
       <c r="M25">
-        <v>1.049884219724321</v>
+        <v>0.9874548291071659</v>
       </c>
       <c r="N25">
-        <v>1.015938796845746</v>
+        <v>1.001862182194035</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9780439437921868</v>
+        <v>0.9743812280674571</v>
       </c>
       <c r="D2">
-        <v>0.9906288811199573</v>
+        <v>0.9913003377368473</v>
       </c>
       <c r="E2">
-        <v>0.9914263744263124</v>
+        <v>0.9835961628520972</v>
       </c>
       <c r="F2">
-        <v>0.98798063142714</v>
+        <v>1.013766889961339</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035962301739697</v>
+        <v>1.04595758475842</v>
       </c>
       <c r="J2">
-        <v>1.000901792791288</v>
+        <v>0.9973561572696493</v>
       </c>
       <c r="K2">
-        <v>1.002220333037283</v>
+        <v>1.002882218141958</v>
       </c>
       <c r="L2">
-        <v>1.003006460025857</v>
+        <v>0.9952888606612601</v>
       </c>
       <c r="M2">
-        <v>0.9996099943672303</v>
+        <v>1.025037704903376</v>
       </c>
       <c r="N2">
-        <v>1.004415975724914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.001479476743175</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028387950741326</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.013107161301299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.98514796288372</v>
+        <v>0.9804309987354923</v>
       </c>
       <c r="D3">
-        <v>0.9973898516561425</v>
+        <v>0.995939399881081</v>
       </c>
       <c r="E3">
-        <v>0.9981645884178613</v>
+        <v>0.9885974056598652</v>
       </c>
       <c r="F3">
-        <v>0.9968973443192947</v>
+        <v>1.017567420581732</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039215529366234</v>
+        <v>1.04623863817128</v>
       </c>
       <c r="J3">
-        <v>1.006051864120491</v>
+        <v>1.001469732780275</v>
       </c>
       <c r="K3">
-        <v>1.008056239120715</v>
+        <v>1.006624501865085</v>
       </c>
       <c r="L3">
-        <v>1.008821007671517</v>
+        <v>0.9993782942569395</v>
       </c>
       <c r="M3">
-        <v>1.007570078743818</v>
+        <v>1.027980350992599</v>
       </c>
       <c r="N3">
-        <v>1.00611293522959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.003056624901529</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030716893915439</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.015750722019382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9895237528204762</v>
+        <v>0.9842494060915679</v>
       </c>
       <c r="D4">
-        <v>1.001536040172114</v>
+        <v>0.9988752024784701</v>
       </c>
       <c r="E4">
-        <v>1.002296035421117</v>
+        <v>0.9917597178003092</v>
       </c>
       <c r="F4">
-        <v>1.002316986336652</v>
+        <v>1.019970634833294</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041122171435457</v>
+        <v>1.046397334631518</v>
       </c>
       <c r="J4">
-        <v>1.009199292277367</v>
+        <v>1.004064779121239</v>
       </c>
       <c r="K4">
-        <v>1.011615961827733</v>
+        <v>1.008987221798945</v>
       </c>
       <c r="L4">
-        <v>1.012366828083233</v>
+        <v>1.00195862383005</v>
       </c>
       <c r="M4">
-        <v>1.012387527581561</v>
+        <v>1.029833861753602</v>
       </c>
       <c r="N4">
-        <v>1.007150124486723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.004048687359507</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032183842134833</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.01742241017602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9913154430610751</v>
+        <v>0.9858435835872942</v>
       </c>
       <c r="D5">
-        <v>1.003229694835682</v>
+        <v>1.000106278574538</v>
       </c>
       <c r="E5">
-        <v>1.003983495542419</v>
+        <v>0.9930824737181042</v>
       </c>
       <c r="F5">
-        <v>1.00451991055779</v>
+        <v>1.020973323749852</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041880513652486</v>
+        <v>1.046459227262601</v>
       </c>
       <c r="J5">
-        <v>1.010482451250091</v>
+        <v>1.005151031565872</v>
       </c>
       <c r="K5">
-        <v>1.013065669989144</v>
+        <v>1.009978853073437</v>
       </c>
       <c r="L5">
-        <v>1.013810680046785</v>
+        <v>1.003038394105952</v>
       </c>
       <c r="M5">
-        <v>1.01434084944885</v>
+        <v>1.030606617129618</v>
       </c>
       <c r="N5">
-        <v>1.007572990363262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.004464384085775</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032795433100445</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.018131012752628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9916135962304558</v>
+        <v>0.9861232290035304</v>
       </c>
       <c r="D6">
-        <v>1.003511306333708</v>
+        <v>1.000326670458078</v>
       </c>
       <c r="E6">
-        <v>1.004264067264997</v>
+        <v>0.9933160427247447</v>
       </c>
       <c r="F6">
-        <v>1.004885576564362</v>
+        <v>1.021147417053713</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042005417638203</v>
+        <v>1.046470130522999</v>
       </c>
       <c r="J6">
-        <v>1.010695661877897</v>
+        <v>1.005345434787182</v>
       </c>
       <c r="K6">
-        <v>1.013306466703616</v>
+        <v>1.010158963659715</v>
       </c>
       <c r="L6">
-        <v>1.014050492980184</v>
+        <v>1.003231119637092</v>
       </c>
       <c r="M6">
-        <v>1.014664802789147</v>
+        <v>1.030742101339787</v>
       </c>
       <c r="N6">
-        <v>1.007643255059969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.004540144507877</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.032902660923078</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.018267381886304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9895478757066922</v>
+        <v>0.9843068235165193</v>
       </c>
       <c r="D7">
-        <v>1.001558858688425</v>
+        <v>0.9989312022956431</v>
       </c>
       <c r="E7">
-        <v>1.002318771147558</v>
+        <v>0.9918113513683829</v>
       </c>
       <c r="F7">
-        <v>1.002346708748628</v>
+        <v>1.020001789204399</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041132469194058</v>
+        <v>1.046400461916714</v>
       </c>
       <c r="J7">
-        <v>1.009216590110325</v>
+        <v>1.004114422105677</v>
       </c>
       <c r="K7">
-        <v>1.011635510845982</v>
+        <v>1.009039538094976</v>
       </c>
       <c r="L7">
-        <v>1.012386298887906</v>
+        <v>1.00200658624601</v>
       </c>
       <c r="M7">
-        <v>1.012413901363867</v>
+        <v>1.029861735607243</v>
       </c>
       <c r="N7">
-        <v>1.007155824928391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.004071560585246</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032205902679184</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.017480138185618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,81 +751,105 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9804938711938713</v>
+        <v>0.9764934159586649</v>
       </c>
       <c r="D8">
-        <v>0.992964672573967</v>
+        <v>0.9929331813451929</v>
       </c>
       <c r="E8">
-        <v>0.9937544835246857</v>
+        <v>0.9853464440057959</v>
       </c>
       <c r="F8">
-        <v>0.9910721194674968</v>
+        <v>1.015086516298612</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037105710926579</v>
+        <v>1.046060408398191</v>
       </c>
       <c r="J8">
-        <v>1.002683443368873</v>
+        <v>0.9988061851290309</v>
       </c>
       <c r="K8">
-        <v>1.004240792788361</v>
+        <v>1.004209735797917</v>
       </c>
       <c r="L8">
-        <v>1.005019724234459</v>
+        <v>0.9967286349955353</v>
       </c>
       <c r="M8">
-        <v>1.002374398243152</v>
+        <v>1.026065936487259</v>
       </c>
       <c r="N8">
-        <v>1.005003006946094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.002041198767699</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029201740601629</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.014069595086962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9625543189709489</v>
+        <v>0.9618739241955382</v>
       </c>
       <c r="D9">
-        <v>0.9757560611457576</v>
+        <v>0.9817576501622494</v>
       </c>
       <c r="E9">
-        <v>0.976597935856017</v>
+        <v>0.9732930234419728</v>
       </c>
       <c r="F9">
-        <v>0.9680312812344954</v>
+        <v>1.005943515429481</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028233121255607</v>
+        <v>1.045277856658911</v>
       </c>
       <c r="J9">
-        <v>0.9895023900400673</v>
+        <v>0.9888487726698355</v>
       </c>
       <c r="K9">
-        <v>0.9892551202323072</v>
+        <v>0.9951537971899982</v>
       </c>
       <c r="L9">
-        <v>0.9900824602864551</v>
+        <v>0.9868347928872082</v>
       </c>
       <c r="M9">
-        <v>0.9816652361036274</v>
+        <v>1.018940893667708</v>
       </c>
       <c r="N9">
-        <v>1.000660815877197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9982039358684446</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023562633533386</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.007662634188634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9486772249530114</v>
+        <v>0.9516459024906924</v>
       </c>
       <c r="D10">
-        <v>0.9622651239756903</v>
+        <v>0.9740069121104988</v>
       </c>
       <c r="E10">
-        <v>0.9631400586585579</v>
+        <v>0.9649178298092226</v>
       </c>
       <c r="F10">
-        <v>0.9495401435741355</v>
+        <v>0.999772029761601</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02059532840433</v>
+        <v>1.044672376183657</v>
       </c>
       <c r="J10">
-        <v>0.9790862180822952</v>
+        <v>0.9819186254691633</v>
       </c>
       <c r="K10">
-        <v>0.9773508391929405</v>
+        <v>0.9888618933439033</v>
       </c>
       <c r="L10">
-        <v>0.9782083257692247</v>
+        <v>0.9799507723531772</v>
       </c>
       <c r="M10">
-        <v>0.9648844224833275</v>
+        <v>1.014145401501769</v>
       </c>
       <c r="N10">
-        <v>0.9972310273087184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9955385075004495</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.019819850282442</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.003230990303336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9419934380015308</v>
+        <v>0.9480561955256086</v>
       </c>
       <c r="D11">
-        <v>0.955703686881192</v>
+        <v>0.9714195476487644</v>
       </c>
       <c r="E11">
-        <v>0.9565919682703605</v>
+        <v>0.962129101799563</v>
       </c>
       <c r="F11">
-        <v>0.9404066536787682</v>
+        <v>0.9990550859195834</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016672878648356</v>
+        <v>1.044698021600331</v>
       </c>
       <c r="J11">
-        <v>0.9739956165013546</v>
+        <v>0.9797617703872705</v>
       </c>
       <c r="K11">
-        <v>0.9715122751487476</v>
+        <v>0.9869013551050139</v>
       </c>
       <c r="L11">
-        <v>0.972381707337053</v>
+        <v>0.9778023807857065</v>
       </c>
       <c r="M11">
-        <v>0.9565472802394094</v>
+        <v>1.013994843963239</v>
       </c>
       <c r="N11">
-        <v>0.9955554332416175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9948553805532407</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.020146337938781</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.001879027453414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9393778459010269</v>
+        <v>0.947013284916024</v>
       </c>
       <c r="D12">
-        <v>0.9531235045256459</v>
+        <v>0.9707147975854516</v>
       </c>
       <c r="E12">
-        <v>0.9540165030174831</v>
+        <v>0.9613879082228014</v>
       </c>
       <c r="F12">
-        <v>0.9367889357836651</v>
+        <v>0.9994696856283708</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015093092639793</v>
+        <v>1.044817005267855</v>
       </c>
       <c r="J12">
-        <v>0.9719894828643447</v>
+        <v>0.9792426685835104</v>
       </c>
       <c r="K12">
-        <v>0.9692074768196852</v>
+        <v>0.9864254169650918</v>
       </c>
       <c r="L12">
-        <v>0.9700810820982503</v>
+        <v>0.9772942251992141</v>
       </c>
       <c r="M12">
-        <v>0.953236356471779</v>
+        <v>1.01460705268185</v>
       </c>
       <c r="N12">
-        <v>0.9948952283306057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9947796418355197</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.020963125390947</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.001542493649252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9399456186589367</v>
+        <v>0.9479229741990921</v>
       </c>
       <c r="D13">
-        <v>0.953684213030394</v>
+        <v>0.9714700218955393</v>
       </c>
       <c r="E13">
-        <v>0.9545762128280602</v>
+        <v>0.9622254531481022</v>
       </c>
       <c r="F13">
-        <v>0.9375763920527801</v>
+        <v>1.000830319617793</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01543820658879</v>
+        <v>1.045025223931556</v>
       </c>
       <c r="J13">
-        <v>0.9724256504905506</v>
+        <v>0.9800060178850925</v>
       </c>
       <c r="K13">
-        <v>0.9697087710018668</v>
+        <v>0.9871190614871657</v>
       </c>
       <c r="L13">
-        <v>0.9705814953908912</v>
+        <v>0.978067383491232</v>
       </c>
       <c r="M13">
-        <v>0.9539574493391693</v>
+        <v>1.015897648777103</v>
       </c>
       <c r="N13">
-        <v>0.9950387619945442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9951925430180917</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.022264633706651</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.002030358394379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9417801899883901</v>
+        <v>0.9494406148216817</v>
       </c>
       <c r="D14">
-        <v>0.9554935974049914</v>
+        <v>0.9726593935959528</v>
       </c>
       <c r="E14">
-        <v>0.9563822744013502</v>
+        <v>0.9635241299979412</v>
       </c>
       <c r="F14">
-        <v>0.9401126429415283</v>
+        <v>1.002196851921553</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016545038041194</v>
+        <v>1.045207687243211</v>
       </c>
       <c r="J14">
-        <v>0.9738323598550122</v>
+        <v>0.9811181421054946</v>
       </c>
       <c r="K14">
-        <v>0.9713247973978245</v>
+        <v>0.9881336866397057</v>
       </c>
       <c r="L14">
-        <v>0.9721945807222822</v>
+        <v>0.979186269311017</v>
       </c>
       <c r="M14">
-        <v>0.9562783848020543</v>
+        <v>1.017094372056333</v>
       </c>
       <c r="N14">
-        <v>0.9955017039190188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9957024251484277</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.023386203848344</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.002749285740195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9428916778174963</v>
+        <v>0.950254099845346</v>
       </c>
       <c r="D15">
-        <v>0.9565881023832769</v>
+        <v>0.9732863224162298</v>
       </c>
       <c r="E15">
-        <v>0.9574746963012211</v>
+        <v>0.9642018032565832</v>
       </c>
       <c r="F15">
-        <v>0.9416432743707051</v>
+        <v>1.002774008150713</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01720951495302</v>
+        <v>1.045275764948924</v>
       </c>
       <c r="J15">
-        <v>0.9746827018006234</v>
+        <v>0.9816888342838198</v>
       </c>
       <c r="K15">
-        <v>0.9723011364911828</v>
+        <v>0.9886553949531663</v>
       </c>
       <c r="L15">
-        <v>0.9731690687297594</v>
+        <v>0.9797560544313512</v>
       </c>
       <c r="M15">
-        <v>0.9576779115439721</v>
+        <v>1.017572161828698</v>
       </c>
       <c r="N15">
-        <v>0.9957815646940162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9959412186390778</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.023801813596458</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.003124319241751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9491042511210239</v>
+        <v>0.9544386648897779</v>
       </c>
       <c r="D16">
-        <v>0.9626828469514517</v>
+        <v>0.9764387557889193</v>
       </c>
       <c r="E16">
-        <v>0.9635568686610233</v>
+        <v>0.9675995124027766</v>
       </c>
       <c r="F16">
-        <v>0.9501184449199768</v>
+        <v>1.00518301653599</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020840451955538</v>
+        <v>1.045510675684727</v>
       </c>
       <c r="J16">
-        <v>0.9794097647312328</v>
+        <v>0.9845012900387972</v>
       </c>
       <c r="K16">
-        <v>0.9777214547160396</v>
+        <v>0.9912088850840342</v>
       </c>
       <c r="L16">
-        <v>0.9785781181480202</v>
+        <v>0.9825410094623117</v>
       </c>
       <c r="M16">
-        <v>0.9654112430959442</v>
+        <v>1.019422911752565</v>
       </c>
       <c r="N16">
-        <v>0.9973375386172108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.996998476998629</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.025225462673343</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.004933170514837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9528028502049671</v>
+        <v>0.9568561602883884</v>
       </c>
       <c r="D17">
-        <v>0.9662937504128046</v>
+        <v>0.9782391798599006</v>
       </c>
       <c r="E17">
-        <v>0.9671595763267155</v>
+        <v>0.9695305577004323</v>
       </c>
       <c r="F17">
-        <v>0.9551019098968335</v>
+        <v>1.006313133013031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022936474465831</v>
+        <v>1.045592596190913</v>
       </c>
       <c r="J17">
-        <v>0.9822038774257839</v>
+        <v>0.9860795653851702</v>
       </c>
       <c r="K17">
-        <v>0.9809197613762093</v>
+        <v>0.9926398251546236</v>
       </c>
       <c r="L17">
-        <v>0.9817690074855745</v>
+        <v>0.9840947848693472</v>
       </c>
       <c r="M17">
-        <v>0.9699457892239244</v>
+        <v>1.020211368249536</v>
       </c>
       <c r="N17">
-        <v>0.9982574270668545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.997543330988393</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.025718099314929</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.005947665679605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9548977628641383</v>
+        <v>0.9579422907836417</v>
       </c>
       <c r="D18">
-        <v>0.9683334735518926</v>
+        <v>0.9790001182934137</v>
       </c>
       <c r="E18">
-        <v>0.9691944339912274</v>
+        <v>0.9703398719332328</v>
       </c>
       <c r="F18">
-        <v>0.9579047755705083</v>
+        <v>1.006328968931168</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024102309548607</v>
+        <v>1.045538999784018</v>
       </c>
       <c r="J18">
-        <v>0.9837800540916117</v>
+        <v>0.9866940724003505</v>
       </c>
       <c r="K18">
-        <v>0.9827221561286897</v>
+        <v>0.9931914574880281</v>
       </c>
       <c r="L18">
-        <v>0.9835669775638453</v>
+        <v>0.984691001811606</v>
       </c>
       <c r="M18">
-        <v>0.9724919663757552</v>
+        <v>1.020039343125443</v>
       </c>
       <c r="N18">
-        <v>0.9987763947622346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9976776286362816</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.0253411676985</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.006325590202792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9556022054533955</v>
+        <v>0.9578665142831145</v>
       </c>
       <c r="D19">
-        <v>0.9690184842369287</v>
+        <v>0.9788729359074519</v>
       </c>
       <c r="E19">
-        <v>0.9698777732653133</v>
+        <v>0.970180411970655</v>
       </c>
       <c r="F19">
-        <v>0.9588441186756864</v>
+        <v>1.005310865619696</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024490887590541</v>
+        <v>1.045361989938018</v>
       </c>
       <c r="J19">
-        <v>0.9843090372656045</v>
+        <v>0.9864769473272732</v>
       </c>
       <c r="K19">
-        <v>0.9833267741200424</v>
+        <v>0.9930000321437463</v>
       </c>
       <c r="L19">
-        <v>0.9841700722695944</v>
+        <v>0.9844670878386729</v>
       </c>
       <c r="M19">
-        <v>0.9733445996324315</v>
+        <v>1.018974497057995</v>
       </c>
       <c r="N19">
-        <v>0.9989505746188058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.997476876249381</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.024168401612735</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.006196899104069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9524126600273717</v>
+        <v>0.9544248257233737</v>
       </c>
       <c r="D20">
-        <v>0.9659134046512672</v>
+        <v>0.9761412227968613</v>
       </c>
       <c r="E20">
-        <v>0.9667801191931598</v>
+        <v>0.9672041705490166</v>
       </c>
       <c r="F20">
-        <v>0.9545782923688002</v>
+        <v>1.001442566488209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022717629628166</v>
+        <v>1.044845098537172</v>
       </c>
       <c r="J20">
-        <v>0.9819097958145409</v>
+        <v>0.9838331327077072</v>
       </c>
       <c r="K20">
-        <v>0.9805833300009281</v>
+        <v>0.9906169875264675</v>
       </c>
       <c r="L20">
-        <v>0.9814333826060111</v>
+        <v>0.9818492961345768</v>
       </c>
       <c r="M20">
-        <v>0.9694697878866796</v>
+        <v>1.015460097443017</v>
       </c>
       <c r="N20">
-        <v>0.9981606026960738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9962888270586804</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.020849526912353</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.004515966747519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9412439659449289</v>
+        <v>0.946462555606959</v>
       </c>
       <c r="D21">
-        <v>0.9549651046389365</v>
+        <v>0.9701000080350538</v>
       </c>
       <c r="E21">
-        <v>0.9558547678466029</v>
+        <v>0.9606735801605651</v>
       </c>
       <c r="F21">
-        <v>0.9393726045649111</v>
+        <v>0.9963783652169995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016222827269285</v>
+        <v>1.044295502499029</v>
       </c>
       <c r="J21">
-        <v>0.9734216062945636</v>
+        <v>0.9783826723172235</v>
       </c>
       <c r="K21">
-        <v>0.9708530381628061</v>
+        <v>0.9856708843696835</v>
       </c>
       <c r="L21">
-        <v>0.9717236959600218</v>
+        <v>0.9764403757533373</v>
       </c>
       <c r="M21">
-        <v>0.9556014199796484</v>
+        <v>1.011428676963407</v>
       </c>
       <c r="N21">
-        <v>0.995366523074629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9941620416726391</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.017617047256836</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.001022006717833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.933420785124826</v>
+        <v>0.9413099298841074</v>
       </c>
       <c r="D22">
-        <v>0.9472187862136261</v>
+        <v>0.966197325629609</v>
       </c>
       <c r="E22">
-        <v>0.9481213786643361</v>
+        <v>0.9564605845759013</v>
       </c>
       <c r="F22">
-        <v>0.9284523968453484</v>
+        <v>0.9932137509741777</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011397245620584</v>
+        <v>1.043939253545175</v>
       </c>
       <c r="J22">
-        <v>0.967389271348353</v>
+        <v>0.9748611355421232</v>
       </c>
       <c r="K22">
-        <v>0.9639137379647643</v>
+        <v>0.9824695377577202</v>
       </c>
       <c r="L22">
-        <v>0.9647957136666483</v>
+        <v>0.9729468882871335</v>
       </c>
       <c r="M22">
-        <v>0.9455882122795825</v>
+        <v>1.008920854265944</v>
       </c>
       <c r="N22">
-        <v>0.9933816096932457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9927886333141286</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.015632205015468</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>0.9987441729943982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9376599557375013</v>
+        <v>0.9440157228156244</v>
       </c>
       <c r="D23">
-        <v>0.9514248391334208</v>
+        <v>0.9682338133193243</v>
       </c>
       <c r="E23">
-        <v>0.9523207720712875</v>
+        <v>0.9586667128764108</v>
       </c>
       <c r="F23">
-        <v>0.9343989647106684</v>
+        <v>0.994878467147705</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014041422671305</v>
+        <v>1.04412792384894</v>
       </c>
       <c r="J23">
-        <v>0.9706674098442062</v>
+        <v>0.9766991147034786</v>
       </c>
       <c r="K23">
-        <v>0.9676873393334563</v>
+        <v>0.9841338578397386</v>
       </c>
       <c r="L23">
-        <v>0.9685635237298044</v>
+        <v>0.9747709867076412</v>
       </c>
       <c r="M23">
-        <v>0.9510463873151255</v>
+        <v>1.010236888289306</v>
       </c>
       <c r="N23">
-        <v>0.9944601828771487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9935009753483703</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.016673794514644</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>0.999910917188503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.952589160928033</v>
+        <v>0.9543997391307926</v>
       </c>
       <c r="D24">
-        <v>0.9660854695450036</v>
+        <v>0.9760940646087644</v>
       </c>
       <c r="E24">
-        <v>0.9669517828106267</v>
+        <v>0.9671637462014986</v>
       </c>
       <c r="F24">
-        <v>0.9548152099216124</v>
+        <v>1.001291456477471</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022816689488258</v>
+        <v>1.044818764762295</v>
       </c>
       <c r="J24">
-        <v>0.9820428423253696</v>
+        <v>0.9837736228789352</v>
       </c>
       <c r="K24">
-        <v>0.9807355416780188</v>
+        <v>0.9905544172071665</v>
       </c>
       <c r="L24">
-        <v>0.9815852301596764</v>
+        <v>0.9817931318520675</v>
       </c>
       <c r="M24">
-        <v>0.9696851739703229</v>
+        <v>1.015295930586971</v>
       </c>
       <c r="N24">
-        <v>0.998204407191622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9962465564200161</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020677813538231</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.004443113953869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.967476046394699</v>
+        <v>0.9658190610633849</v>
       </c>
       <c r="D25">
-        <v>0.9805019202547318</v>
+        <v>0.9847842490725106</v>
       </c>
       <c r="E25">
-        <v>0.981330499934136</v>
+        <v>0.9765467838755434</v>
       </c>
       <c r="F25">
-        <v>0.9744464363317451</v>
+        <v>1.008396149368356</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030780821781842</v>
+        <v>1.045505905929472</v>
       </c>
       <c r="J25">
-        <v>0.9931498331422254</v>
+        <v>0.9915541656068614</v>
       </c>
       <c r="K25">
-        <v>0.9934106529063148</v>
+        <v>0.9976234535166755</v>
       </c>
       <c r="L25">
-        <v>0.9942257188732021</v>
+        <v>0.9895204293531139</v>
       </c>
       <c r="M25">
-        <v>0.9874548291071659</v>
+        <v>1.020865509288263</v>
       </c>
       <c r="N25">
-        <v>1.001862182194035</v>
+        <v>0.9992559743356966</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.025085872974112</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.009438695443464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9743812280674571</v>
+        <v>0.9798716976549562</v>
       </c>
       <c r="D2">
-        <v>0.9913003377368473</v>
+        <v>0.9969827265956351</v>
       </c>
       <c r="E2">
-        <v>0.9835961628520972</v>
+        <v>0.9885328381178297</v>
       </c>
       <c r="F2">
-        <v>1.013766889961339</v>
+        <v>1.016104746888865</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04595758475842</v>
+        <v>1.046200063235926</v>
       </c>
       <c r="J2">
-        <v>0.9973561572696493</v>
+        <v>1.002671574610411</v>
       </c>
       <c r="K2">
-        <v>1.002882218141958</v>
+        <v>1.008484257500025</v>
       </c>
       <c r="L2">
-        <v>0.9952888606612601</v>
+        <v>1.000154274719315</v>
       </c>
       <c r="M2">
-        <v>1.025037704903376</v>
+        <v>1.02734418537811</v>
       </c>
       <c r="N2">
-        <v>1.001479476743175</v>
+        <v>1.006972215830843</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028387950741326</v>
+        <v>1.03021340434546</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.013107161301299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.017077615890213</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.013767163405624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9804309987354923</v>
+        <v>0.9851320576582685</v>
       </c>
       <c r="D3">
-        <v>0.995939399881081</v>
+        <v>1.000780694005281</v>
       </c>
       <c r="E3">
-        <v>0.9885974056598652</v>
+        <v>0.9928275631313273</v>
       </c>
       <c r="F3">
-        <v>1.017567420581732</v>
+        <v>1.019564829362401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04623863817128</v>
+        <v>1.046445714210748</v>
       </c>
       <c r="J3">
-        <v>1.001469732780275</v>
+        <v>1.00603641057331</v>
       </c>
       <c r="K3">
-        <v>1.006624501865085</v>
+        <v>1.011403595442453</v>
       </c>
       <c r="L3">
-        <v>0.9993782942569395</v>
+        <v>1.003553046764745</v>
       </c>
       <c r="M3">
-        <v>1.027980350992599</v>
+        <v>1.029953348128158</v>
       </c>
       <c r="N3">
-        <v>1.003056624901529</v>
+        <v>1.007984164222106</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030716893915439</v>
+        <v>1.032278408690378</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.015750722019382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.019138932348621</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.014524739446719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9842494060915679</v>
+        <v>0.9884629882703091</v>
       </c>
       <c r="D4">
-        <v>0.9988752024784701</v>
+        <v>1.003192825333411</v>
       </c>
       <c r="E4">
-        <v>0.9917597178003092</v>
+        <v>0.9955530609219198</v>
       </c>
       <c r="F4">
-        <v>1.019970634833294</v>
+        <v>1.021758665403703</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046397334631518</v>
+        <v>1.046582747544437</v>
       </c>
       <c r="J4">
-        <v>1.004064779121239</v>
+        <v>1.008166488073259</v>
       </c>
       <c r="K4">
-        <v>1.008987221798945</v>
+        <v>1.013252867904784</v>
       </c>
       <c r="L4">
-        <v>1.00195862383005</v>
+        <v>1.00570545455114</v>
       </c>
       <c r="M4">
-        <v>1.029833861753602</v>
+        <v>1.031601387918098</v>
       </c>
       <c r="N4">
-        <v>1.004048687359507</v>
+        <v>1.008623271850901</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032183842134833</v>
+        <v>1.033582735575252</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.01742241017602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.020447599954553</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.015001015979892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9858435835872942</v>
+        <v>0.9898551949882752</v>
       </c>
       <c r="D5">
-        <v>1.000106278574538</v>
+        <v>1.004206159042598</v>
       </c>
       <c r="E5">
-        <v>0.9930824737181042</v>
+        <v>0.9966946528006043</v>
       </c>
       <c r="F5">
-        <v>1.020973323749852</v>
+        <v>1.022674788013011</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046459227262601</v>
+        <v>1.046635694145412</v>
       </c>
       <c r="J5">
-        <v>1.005151031565872</v>
+        <v>1.009059476268297</v>
       </c>
       <c r="K5">
-        <v>1.009978853073437</v>
+        <v>1.014030750018944</v>
       </c>
       <c r="L5">
-        <v>1.003038394105952</v>
+        <v>1.00660752854505</v>
       </c>
       <c r="M5">
-        <v>1.030606617129618</v>
+        <v>1.032289100702479</v>
       </c>
       <c r="N5">
-        <v>1.004464384085775</v>
+        <v>1.008891628928108</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032795433100445</v>
+        <v>1.034127019213525</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.018131012752628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.021005736218929</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.015201536951627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9861232290035304</v>
+        <v>0.9900984702689455</v>
       </c>
       <c r="D6">
-        <v>1.000326670458078</v>
+        <v>1.004387537731301</v>
       </c>
       <c r="E6">
-        <v>0.9933160427247447</v>
+        <v>0.9968954873944652</v>
       </c>
       <c r="F6">
-        <v>1.021147417053713</v>
+        <v>1.022833255289522</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046470130522999</v>
+        <v>1.046644962857628</v>
       </c>
       <c r="J6">
-        <v>1.005345434787182</v>
+        <v>1.009218999265491</v>
       </c>
       <c r="K6">
-        <v>1.010158963659715</v>
+        <v>1.014172532302724</v>
       </c>
       <c r="L6">
-        <v>1.003231119637092</v>
+        <v>1.006768116928744</v>
       </c>
       <c r="M6">
-        <v>1.030742101339787</v>
+        <v>1.03240922131568</v>
       </c>
       <c r="N6">
-        <v>1.004540144507877</v>
+        <v>1.008940521087931</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.032902660923078</v>
+        <v>1.034222087469014</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.018267381886304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.02111584648451</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.015239322799852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9843068235165193</v>
+        <v>0.9885239892085647</v>
       </c>
       <c r="D7">
-        <v>0.9989312022956431</v>
+        <v>1.00325010262068</v>
       </c>
       <c r="E7">
-        <v>0.9918113513683829</v>
+        <v>0.995608494135758</v>
       </c>
       <c r="F7">
-        <v>1.020001789204399</v>
+        <v>1.021792709899814</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046400461916714</v>
+        <v>1.046586385375063</v>
       </c>
       <c r="J7">
-        <v>1.004114422105677</v>
+        <v>1.008219678835742</v>
       </c>
       <c r="K7">
-        <v>1.009039538094976</v>
+        <v>1.013306471064906</v>
       </c>
       <c r="L7">
-        <v>1.00200658624601</v>
+        <v>1.005757191939749</v>
       </c>
       <c r="M7">
-        <v>1.029861735607243</v>
+        <v>1.031632127237057</v>
       </c>
       <c r="N7">
-        <v>1.004071560585246</v>
+        <v>1.008669305952244</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032205902679184</v>
+        <v>1.033607063921221</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.017480138185618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.020508179844916</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.015019835054141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9764934159586649</v>
+        <v>0.9817449902353104</v>
       </c>
       <c r="D8">
-        <v>0.9929331813451929</v>
+        <v>0.9983533518614577</v>
       </c>
       <c r="E8">
-        <v>0.9853464440057959</v>
+        <v>0.9900721166389284</v>
       </c>
       <c r="F8">
-        <v>1.015086516298612</v>
+        <v>1.017326181150154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046060408398191</v>
+        <v>1.046293486197988</v>
       </c>
       <c r="J8">
-        <v>0.9988061851290309</v>
+        <v>1.003896317297346</v>
       </c>
       <c r="K8">
-        <v>1.004209735797917</v>
+        <v>1.009555674338796</v>
       </c>
       <c r="L8">
-        <v>0.9967286349955353</v>
+        <v>1.001388268231363</v>
       </c>
       <c r="M8">
-        <v>1.026065936487259</v>
+        <v>1.028276463416344</v>
       </c>
       <c r="N8">
-        <v>1.002041198767699</v>
+        <v>1.007428196435911</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029201740601629</v>
+        <v>1.030951250244011</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.014069595086962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.017861121827284</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.014055383353536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9618739241955382</v>
+        <v>0.9691144097412181</v>
       </c>
       <c r="D9">
-        <v>0.9817576501622494</v>
+        <v>0.9892664154666078</v>
       </c>
       <c r="E9">
-        <v>0.9732930234419728</v>
+        <v>0.9797953130717586</v>
       </c>
       <c r="F9">
-        <v>1.005943515429481</v>
+        <v>1.009047348082297</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045277856658911</v>
+        <v>1.045601755249123</v>
       </c>
       <c r="J9">
-        <v>0.9888487726698355</v>
+        <v>0.995807025661623</v>
       </c>
       <c r="K9">
-        <v>0.9951537971899982</v>
+        <v>1.002536071671868</v>
       </c>
       <c r="L9">
-        <v>0.9868347928872082</v>
+        <v>0.9932249299874696</v>
       </c>
       <c r="M9">
-        <v>1.018940893667708</v>
+        <v>1.021995324198249</v>
       </c>
       <c r="N9">
-        <v>0.9982039358684446</v>
+        <v>1.00499577708574</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023562633533386</v>
+        <v>1.025980064809879</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.007662634188634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.012893952663174</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.012210953889111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9516459024906924</v>
+        <v>0.9604087407366719</v>
       </c>
       <c r="D10">
-        <v>0.9740069121104988</v>
+        <v>0.9830729381655832</v>
       </c>
       <c r="E10">
-        <v>0.9649178298092226</v>
+        <v>0.9727769303283654</v>
       </c>
       <c r="F10">
-        <v>0.999772029761601</v>
+        <v>1.003547021096033</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044672376183657</v>
+        <v>1.0450665961324</v>
       </c>
       <c r="J10">
-        <v>0.9819186254691633</v>
+        <v>0.9902862515869111</v>
       </c>
       <c r="K10">
-        <v>0.9888618933439033</v>
+        <v>0.9977546928329095</v>
       </c>
       <c r="L10">
-        <v>0.9799507723531772</v>
+        <v>0.987655739173136</v>
       </c>
       <c r="M10">
-        <v>1.014145401501769</v>
+        <v>1.017852526952118</v>
       </c>
       <c r="N10">
-        <v>0.9955385075004495</v>
+        <v>1.003460889888717</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019819850282442</v>
+        <v>1.022753681777258</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.003230990303336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.009532124193831</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.010954647558353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9480561955256086</v>
+        <v>0.9573850049236751</v>
       </c>
       <c r="D11">
-        <v>0.9714195476487644</v>
+        <v>0.981054603527188</v>
       </c>
       <c r="E11">
-        <v>0.962129101799563</v>
+        <v>0.9704828657795905</v>
       </c>
       <c r="F11">
-        <v>0.9990550859195834</v>
+        <v>1.003069010288744</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044698021600331</v>
+        <v>1.045098684434073</v>
       </c>
       <c r="J11">
-        <v>0.9797617703872705</v>
+        <v>0.9886447358958351</v>
       </c>
       <c r="K11">
-        <v>0.9869013551050139</v>
+        <v>0.9963428702139773</v>
       </c>
       <c r="L11">
-        <v>0.9778023807857065</v>
+        <v>0.9859837587288122</v>
       </c>
       <c r="M11">
-        <v>1.013994843963239</v>
+        <v>1.01793328072687</v>
       </c>
       <c r="N11">
-        <v>0.9948553805532407</v>
+        <v>1.003308483874837</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.020146337938781</v>
+        <v>1.023261598321769</v>
       </c>
       <c r="Q11">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R11">
-        <v>1.001879027453414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.00857120438318</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.010672288897688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.947013284916024</v>
+        <v>0.9564816364320662</v>
       </c>
       <c r="D12">
-        <v>0.9707147975854516</v>
+        <v>0.9804939082738988</v>
       </c>
       <c r="E12">
-        <v>0.9613879082228014</v>
+        <v>0.9698544631539565</v>
       </c>
       <c r="F12">
-        <v>0.9994696856283708</v>
+        <v>1.003530671219538</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044817005267855</v>
+        <v>1.045205251632707</v>
       </c>
       <c r="J12">
-        <v>0.9792426685835104</v>
+        <v>0.9882492048581907</v>
       </c>
       <c r="K12">
-        <v>0.9864254169650918</v>
+        <v>0.9960046049820525</v>
       </c>
       <c r="L12">
-        <v>0.9772942251992141</v>
+        <v>0.9855829259866851</v>
       </c>
       <c r="M12">
-        <v>1.01460705268185</v>
+        <v>1.018590540309549</v>
       </c>
       <c r="N12">
-        <v>0.9947796418355197</v>
+        <v>1.003377606025208</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.020963125390947</v>
+        <v>1.024112916446192</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.001542493649252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.008332028469593</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.010648891109892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9479229741990921</v>
+        <v>0.9571723237926364</v>
       </c>
       <c r="D13">
-        <v>0.9714700218955393</v>
+        <v>0.9810410493579205</v>
       </c>
       <c r="E13">
-        <v>0.9622254531481022</v>
+        <v>0.9704814664762221</v>
       </c>
       <c r="F13">
-        <v>1.000830319617793</v>
+        <v>1.004772978843331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045025223931556</v>
+        <v>1.045384648529311</v>
       </c>
       <c r="J13">
-        <v>0.9800060178850925</v>
+        <v>0.9888069958376199</v>
       </c>
       <c r="K13">
-        <v>0.9871190614871657</v>
+        <v>0.996495425926521</v>
       </c>
       <c r="L13">
-        <v>0.978067383491232</v>
+        <v>0.986150900926609</v>
       </c>
       <c r="M13">
-        <v>1.015897648777103</v>
+        <v>1.019765575185468</v>
       </c>
       <c r="N13">
-        <v>0.9951925430180917</v>
+        <v>1.003593955387105</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.022264633706651</v>
+        <v>1.02532225966084</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.002030358394379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.008676236701164</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.010832326212702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9494406148216817</v>
+        <v>0.9583764087403326</v>
       </c>
       <c r="D14">
-        <v>0.9726593935959528</v>
+        <v>0.9819272990365659</v>
       </c>
       <c r="E14">
-        <v>0.9635241299979412</v>
+        <v>0.9714886286776087</v>
       </c>
       <c r="F14">
-        <v>1.002196851921553</v>
+        <v>1.005983801096845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045207687243211</v>
+        <v>1.045540572525962</v>
       </c>
       <c r="J14">
-        <v>0.9811181421054946</v>
+        <v>0.9896277915842241</v>
       </c>
       <c r="K14">
-        <v>0.9881336866397057</v>
+        <v>0.9972157105683874</v>
       </c>
       <c r="L14">
-        <v>0.979186269311017</v>
+        <v>0.9869867357394695</v>
       </c>
       <c r="M14">
-        <v>1.017094372056333</v>
+        <v>1.020810569118771</v>
       </c>
       <c r="N14">
-        <v>0.9957024251484277</v>
+        <v>1.00381387986189</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.023386203848344</v>
+        <v>1.026323483128337</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.002749285740195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.00918714579688</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.011055715229381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.950254099845346</v>
+        <v>0.9590343449684348</v>
       </c>
       <c r="D15">
-        <v>0.9732863224162298</v>
+        <v>0.9824020687803968</v>
       </c>
       <c r="E15">
-        <v>0.9642018032565832</v>
+        <v>0.9720242304323649</v>
       </c>
       <c r="F15">
-        <v>1.002774008150713</v>
+        <v>1.006487111895648</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045275764948924</v>
+        <v>1.045598989040866</v>
       </c>
       <c r="J15">
-        <v>0.9816888342838198</v>
+        <v>0.9900544432011816</v>
       </c>
       <c r="K15">
-        <v>0.9886553949531663</v>
+        <v>0.9975898444244579</v>
       </c>
       <c r="L15">
-        <v>0.9797560544313512</v>
+        <v>0.9874187567942644</v>
       </c>
       <c r="M15">
-        <v>1.017572161828698</v>
+        <v>1.021216465404096</v>
       </c>
       <c r="N15">
-        <v>0.9959412186390778</v>
+        <v>1.003908899451145</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.023801813596458</v>
+        <v>1.026682191899655</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.003124319241751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.009458354895986</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.011161417743117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9544386648897779</v>
+        <v>0.9625037641371726</v>
       </c>
       <c r="D16">
-        <v>0.9764387557889193</v>
+        <v>0.9848411920929707</v>
       </c>
       <c r="E16">
-        <v>0.9675995124027766</v>
+        <v>0.9747822231380521</v>
       </c>
       <c r="F16">
-        <v>1.00518301653599</v>
+        <v>1.008573802574849</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045510675684727</v>
+        <v>1.045804928463685</v>
       </c>
       <c r="J16">
-        <v>0.9845012900387972</v>
+        <v>0.992206469243145</v>
       </c>
       <c r="K16">
-        <v>0.9912088850840342</v>
+        <v>0.9994521451530612</v>
       </c>
       <c r="L16">
-        <v>0.9825410094623117</v>
+        <v>0.9895841579852116</v>
       </c>
       <c r="M16">
-        <v>1.019422911752565</v>
+        <v>1.022753732733474</v>
       </c>
       <c r="N16">
-        <v>0.996998476998629</v>
+        <v>1.004317980489699</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.025225462673343</v>
+        <v>1.02785814916602</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.004933170514837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.0107787143351</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.011632064687231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568561602883884</v>
+        <v>0.9645561990756804</v>
       </c>
       <c r="D17">
-        <v>0.9782391798599006</v>
+        <v>0.9862686552489918</v>
       </c>
       <c r="E17">
-        <v>0.9695305577004323</v>
+        <v>0.9763930322822439</v>
       </c>
       <c r="F17">
-        <v>1.006313133013031</v>
+        <v>1.009548768414513</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045592596190913</v>
+        <v>1.045878827622535</v>
       </c>
       <c r="J17">
-        <v>0.9860795653851702</v>
+        <v>0.9934480320101831</v>
       </c>
       <c r="K17">
-        <v>0.9926398251546236</v>
+        <v>1.000521805845825</v>
       </c>
       <c r="L17">
-        <v>0.9840947848693472</v>
+        <v>0.9908280373689166</v>
       </c>
       <c r="M17">
-        <v>1.020211368249536</v>
+        <v>1.023391419249344</v>
       </c>
       <c r="N17">
-        <v>0.997543330988393</v>
+        <v>1.004551699577779</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.025718099314929</v>
+        <v>1.028231872584724</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.005947665679605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.01153796522612</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01188210282287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9579422907836417</v>
+        <v>0.9655245809555431</v>
       </c>
       <c r="D18">
-        <v>0.9790001182934137</v>
+        <v>0.9869004201902403</v>
       </c>
       <c r="E18">
-        <v>0.9703398719332328</v>
+        <v>0.9771080965201899</v>
       </c>
       <c r="F18">
-        <v>1.006328968931168</v>
+        <v>1.009526292704491</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045538999784018</v>
+        <v>1.045833284043702</v>
       </c>
       <c r="J18">
-        <v>0.9866940724003505</v>
+        <v>0.9939564179548059</v>
       </c>
       <c r="K18">
-        <v>0.9931914574880281</v>
+        <v>1.000949166542519</v>
       </c>
       <c r="L18">
-        <v>0.984691001811606</v>
+        <v>0.9913340305943147</v>
       </c>
       <c r="M18">
-        <v>1.020039343125443</v>
+        <v>1.023182591283962</v>
       </c>
       <c r="N18">
-        <v>0.9976776286362816</v>
+        <v>1.004596450112128</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.0253411676985</v>
+        <v>1.0278263791722</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.006325590202792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.011826935933159</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.011944334376433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9578665142831145</v>
+        <v>0.9655228728048337</v>
       </c>
       <c r="D19">
-        <v>0.9788729359074519</v>
+        <v>0.9868377903374775</v>
       </c>
       <c r="E19">
-        <v>0.970180411970655</v>
+        <v>0.9770277944357978</v>
       </c>
       <c r="F19">
-        <v>1.005310865619696</v>
+        <v>1.008558933297937</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045361989938018</v>
+        <v>1.045676286358026</v>
       </c>
       <c r="J19">
-        <v>0.9864769473272732</v>
+        <v>0.993812108643169</v>
       </c>
       <c r="K19">
-        <v>0.9930000321437463</v>
+        <v>1.000821868523942</v>
       </c>
       <c r="L19">
-        <v>0.9844670878386729</v>
+        <v>0.9911884552764252</v>
       </c>
       <c r="M19">
-        <v>1.018974497057995</v>
+        <v>1.022167786104142</v>
       </c>
       <c r="N19">
-        <v>0.997476876249381</v>
+        <v>1.004466632034802</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.024168401612735</v>
+        <v>1.026694027442911</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.006196899104069</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.011744181357986</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.011853830993828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9544248257233737</v>
+        <v>0.9627164376308277</v>
       </c>
       <c r="D20">
-        <v>0.9761412227968613</v>
+        <v>0.9847361470904393</v>
       </c>
       <c r="E20">
-        <v>0.9672041705490166</v>
+        <v>0.974639043061525</v>
       </c>
       <c r="F20">
-        <v>1.001442566488209</v>
+        <v>1.005003190607904</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044845098537172</v>
+        <v>1.045215528727878</v>
       </c>
       <c r="J20">
-        <v>0.9838331327077072</v>
+        <v>0.9917642878083377</v>
       </c>
       <c r="K20">
-        <v>0.9906169875264675</v>
+        <v>0.9990528100814203</v>
       </c>
       <c r="L20">
-        <v>0.9818492961345768</v>
+        <v>0.9891429910988063</v>
       </c>
       <c r="M20">
-        <v>1.015460097443017</v>
+        <v>1.018958631765045</v>
       </c>
       <c r="N20">
-        <v>0.9962888270586804</v>
+        <v>1.003808171788509</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.020849526912353</v>
+        <v>1.023618311914422</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.004515966747519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.010497794522888</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.011302786058815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.946462555606959</v>
+        <v>0.956187740111744</v>
       </c>
       <c r="D21">
-        <v>0.9701000080350538</v>
+        <v>0.9801146146508717</v>
       </c>
       <c r="E21">
-        <v>0.9606735801605651</v>
+        <v>0.96940579477203</v>
       </c>
       <c r="F21">
-        <v>0.9963783652169995</v>
+        <v>1.000610398955371</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044295502499029</v>
+        <v>1.044745742045486</v>
       </c>
       <c r="J21">
-        <v>0.9783826723172235</v>
+        <v>0.9876387296135554</v>
       </c>
       <c r="K21">
-        <v>0.9856708843696835</v>
+        <v>0.9954827757983625</v>
       </c>
       <c r="L21">
-        <v>0.9764403757533373</v>
+        <v>0.9849909281796807</v>
       </c>
       <c r="M21">
-        <v>1.011428676963407</v>
+        <v>1.015580216362107</v>
       </c>
       <c r="N21">
-        <v>0.9941620416726391</v>
+        <v>1.003004492413314</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017617047256836</v>
+        <v>1.020902813049053</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.001022006717833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.007977224644672</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.010370918850551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9413099298841074</v>
+        <v>0.9519838188264379</v>
       </c>
       <c r="D22">
-        <v>0.966197325629609</v>
+        <v>0.9771455330111106</v>
       </c>
       <c r="E22">
-        <v>0.9564605845759013</v>
+        <v>0.9660505801241128</v>
       </c>
       <c r="F22">
-        <v>0.9932137509741777</v>
+        <v>0.9978940836518817</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043939253545175</v>
+        <v>1.044442467700986</v>
       </c>
       <c r="J22">
-        <v>0.9748611355421232</v>
+        <v>0.984986360871673</v>
       </c>
       <c r="K22">
-        <v>0.9824695377577202</v>
+        <v>0.9931837563302596</v>
       </c>
       <c r="L22">
-        <v>0.9729468882871335</v>
+        <v>0.9823259763729841</v>
       </c>
       <c r="M22">
-        <v>1.008920854265944</v>
+        <v>1.013507374912947</v>
       </c>
       <c r="N22">
-        <v>0.9927886333141286</v>
+        <v>1.002481766120367</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.015632205015468</v>
+        <v>1.019262249762705</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>0.9987441729943982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.006336276983498</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.009770023371317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9440157228156244</v>
+        <v>0.9541679436469946</v>
       </c>
       <c r="D23">
-        <v>0.9682338133193243</v>
+        <v>0.9786717055293067</v>
       </c>
       <c r="E23">
-        <v>0.9586667128764108</v>
+        <v>0.9677830580767705</v>
       </c>
       <c r="F23">
-        <v>0.994878467147705</v>
+        <v>0.9993077263930767</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04412792384894</v>
+        <v>1.044600859080022</v>
       </c>
       <c r="J23">
-        <v>0.9766991147034786</v>
+        <v>0.9863466121966181</v>
       </c>
       <c r="K23">
-        <v>0.9841338578397386</v>
+        <v>0.9943549377775402</v>
       </c>
       <c r="L23">
-        <v>0.9747709867076412</v>
+        <v>0.9836926049479544</v>
       </c>
       <c r="M23">
-        <v>1.010236888289306</v>
+        <v>1.014579780049172</v>
       </c>
       <c r="N23">
-        <v>0.9935009753483703</v>
+        <v>1.002697781945041</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.016673794514644</v>
+        <v>1.020111011995446</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>0.999910917188503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.007153417534228</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.010068525931801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9543997391307926</v>
+        <v>0.9627070770411339</v>
       </c>
       <c r="D24">
-        <v>0.9760940646087644</v>
+        <v>0.9847032952545381</v>
       </c>
       <c r="E24">
-        <v>0.9671637462014986</v>
+        <v>0.9746146172737667</v>
       </c>
       <c r="F24">
-        <v>1.001291456477471</v>
+        <v>1.004861366755462</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044818764762295</v>
+        <v>1.045191993454073</v>
       </c>
       <c r="J24">
-        <v>0.9837736228789352</v>
+        <v>0.9917203149330306</v>
       </c>
       <c r="K24">
-        <v>0.9905544172071665</v>
+        <v>0.9990044710495013</v>
       </c>
       <c r="L24">
-        <v>0.9817931318520675</v>
+        <v>0.9891026932805776</v>
       </c>
       <c r="M24">
-        <v>1.015295930586971</v>
+        <v>1.018803645819215</v>
       </c>
       <c r="N24">
-        <v>0.9962465564200161</v>
+        <v>1.003778057537773</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020677813538231</v>
+        <v>1.023454008421341</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.004443113953869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.010432490645963</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.011277361725124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9658190610633849</v>
+        <v>0.9724869415961176</v>
       </c>
       <c r="D25">
-        <v>0.9847842490725106</v>
+        <v>0.9917012809854808</v>
       </c>
       <c r="E25">
-        <v>0.9765467838755434</v>
+        <v>0.9825365133257491</v>
       </c>
       <c r="F25">
-        <v>1.008396149368356</v>
+        <v>1.011247999873185</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045505905929472</v>
+        <v>1.045802726683777</v>
       </c>
       <c r="J25">
-        <v>0.9915541656068614</v>
+        <v>0.9979770808422258</v>
       </c>
       <c r="K25">
-        <v>0.9976234535166755</v>
+        <v>1.004429804573092</v>
       </c>
       <c r="L25">
-        <v>0.9895204293531139</v>
+        <v>0.9954121151139053</v>
       </c>
       <c r="M25">
-        <v>1.020865509288263</v>
+        <v>1.023674178873729</v>
       </c>
       <c r="N25">
-        <v>0.9992559743356966</v>
+        <v>1.00562172725416</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025085872974112</v>
+        <v>1.027308791923039</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.009438695443464</v>
+        <v>1.01426540176769</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.012715891031277</v>
       </c>
     </row>
   </sheetData>
